--- a/tests/12_Data_Edit_Activity_News.xlsx
+++ b/tests/12_Data_Edit_Activity_News.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718EE27-E83D-4A00-B2C1-37BFF414007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF46503-6069-4ABE-A993-8B4F6F1B9EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,25 @@
     <sheet name="ตารางที่ TC012-EC" sheetId="1" r:id="rId1"/>
     <sheet name="ตารางที่ TC012-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="99">
   <si>
     <t>TCID</t>
   </si>
@@ -39,9 +52,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Result T/F</t>
-  </si>
-  <si>
     <t>แก</t>
   </si>
   <si>
@@ -280,6 +290,42 @@
   </si>
   <si>
     <t>กรุณาอัพโหลดไฟล์</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result P/F </t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>Pass :</t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum :</t>
+  </si>
+  <si>
+    <t>Result P/F</t>
+  </si>
+  <si>
+    <t>Revise Manual Testing</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -329,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +412,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -513,11 +565,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,11 +701,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -914,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H20"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -927,11 +1041,11 @@
     <col min="4" max="4" width="58.3984375" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="53.8984375" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,431 +1068,660 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="I20" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="45">
+        <f>COUNTIF(H2:H20,"Pass")</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="45">
+        <f>I24*100/I26</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="45">
+        <f>COUNTIF(H2:H20,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="45">
+        <f>I25*100/I26</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="45">
+        <f>SUM(I24:I25)</f>
+        <v>2</v>
+      </c>
+      <c r="J26" s="45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="45">
+        <f>COUNTIF(J2:J20,"Pass")</f>
+        <v>19</v>
+      </c>
+      <c r="J29" s="45">
+        <f>I29*100/I31</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="45">
+        <f>COUNTIF(J2:J20,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="45">
+        <f>I30*100/I31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="45">
+        <f>SUM(I29:I30)</f>
+        <v>19</v>
+      </c>
+      <c r="J31" s="45">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H28:I28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H2:H20">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1405,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>4</v>
@@ -1425,27 +1768,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="37"/>
@@ -1454,10 +1797,10 @@
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="37"/>
@@ -1466,10 +1809,10 @@
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="37"/>
@@ -1478,10 +1821,10 @@
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="37"/>
@@ -1490,10 +1833,10 @@
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="37"/>
@@ -1502,13 +1845,13 @@
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E8" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="37"/>
     </row>
@@ -1516,13 +1859,13 @@
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="37"/>
     </row>
@@ -1530,13 +1873,13 @@
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="37"/>
     </row>
@@ -1544,10 +1887,10 @@
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="37"/>
@@ -1556,10 +1899,10 @@
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="37"/>
@@ -1568,10 +1911,10 @@
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="38"/>
@@ -1581,27 +1924,27 @@
         <v>2</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="37"/>
@@ -1610,10 +1953,10 @@
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="37"/>
@@ -1622,10 +1965,10 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="37"/>
@@ -1634,10 +1977,10 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="37"/>
@@ -1646,10 +1989,10 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="37"/>
@@ -1658,13 +2001,13 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="37"/>
     </row>
@@ -1672,13 +2015,13 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="37"/>
     </row>
@@ -1686,13 +2029,13 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="37"/>
     </row>
@@ -1700,10 +2043,10 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="37"/>
@@ -1712,10 +2055,10 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="37"/>
@@ -1724,10 +2067,10 @@
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="38"/>
@@ -1737,27 +2080,27 @@
         <v>3</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="37"/>
@@ -1766,10 +2109,10 @@
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="37"/>
@@ -1778,10 +2121,10 @@
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="37"/>
@@ -1790,10 +2133,10 @@
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="37"/>
@@ -1802,10 +2145,10 @@
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="37"/>
@@ -1814,13 +2157,13 @@
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="37"/>
     </row>
@@ -1828,13 +2171,13 @@
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E33" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="37"/>
     </row>
@@ -1842,13 +2185,13 @@
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E34" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="37"/>
     </row>
@@ -1856,10 +2199,10 @@
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="37"/>
@@ -1868,10 +2211,10 @@
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="37"/>
@@ -1880,10 +2223,10 @@
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="38"/>
@@ -1893,27 +2236,27 @@
         <v>4</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="D38" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="37"/>
@@ -1922,10 +2265,10 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="37"/>
@@ -1934,10 +2277,10 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="37"/>
@@ -1946,10 +2289,10 @@
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="37"/>
@@ -1958,10 +2301,10 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="37"/>
@@ -1970,13 +2313,13 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E44" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="37"/>
     </row>
@@ -1984,13 +2327,13 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E45" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="37"/>
     </row>
@@ -1998,13 +2341,13 @@
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E46" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="37"/>
     </row>
@@ -2012,10 +2355,10 @@
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="37"/>
@@ -2024,10 +2367,10 @@
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="37"/>
@@ -2036,10 +2379,10 @@
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="38"/>
@@ -2049,27 +2392,27 @@
         <v>5</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="37"/>
@@ -2078,10 +2421,10 @@
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="37"/>
@@ -2090,10 +2433,10 @@
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="37"/>
@@ -2102,10 +2445,10 @@
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="37"/>
@@ -2114,10 +2457,10 @@
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="37"/>
@@ -2126,13 +2469,13 @@
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E56" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" s="37"/>
     </row>
@@ -2140,13 +2483,13 @@
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E57" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="37"/>
     </row>
@@ -2154,13 +2497,13 @@
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E58" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="37"/>
     </row>
@@ -2168,10 +2511,10 @@
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="37"/>
@@ -2180,10 +2523,10 @@
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="37"/>
@@ -2192,10 +2535,10 @@
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
       <c r="C61" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="38"/>
@@ -2205,27 +2548,27 @@
         <v>6</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="37"/>
@@ -2234,10 +2577,10 @@
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="37"/>
@@ -2246,10 +2589,10 @@
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="37"/>
@@ -2258,10 +2601,10 @@
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="37"/>
@@ -2270,10 +2613,10 @@
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="37"/>
@@ -2282,13 +2625,13 @@
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E68" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68" s="37"/>
     </row>
@@ -2296,13 +2639,13 @@
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E69" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="37"/>
     </row>
@@ -2310,13 +2653,13 @@
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E70" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" s="37"/>
     </row>
@@ -2324,10 +2667,10 @@
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="37"/>
@@ -2336,10 +2679,10 @@
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="37"/>
@@ -2348,10 +2691,10 @@
       <c r="A73" s="25"/>
       <c r="B73" s="26"/>
       <c r="C73" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="38"/>
@@ -2361,27 +2704,27 @@
         <v>7</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="37"/>
@@ -2390,10 +2733,10 @@
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="37"/>
@@ -2402,10 +2745,10 @@
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="37"/>
@@ -2414,10 +2757,10 @@
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="37"/>
@@ -2426,10 +2769,10 @@
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="37"/>
@@ -2438,10 +2781,10 @@
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="37"/>
@@ -2450,13 +2793,13 @@
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E81" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F81" s="37"/>
     </row>
@@ -2464,13 +2807,13 @@
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E82" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" s="37"/>
     </row>
@@ -2478,10 +2821,10 @@
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="37"/>
@@ -2490,10 +2833,10 @@
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="37"/>
@@ -2502,10 +2845,10 @@
       <c r="A85" s="25"/>
       <c r="B85" s="26"/>
       <c r="C85" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="38"/>
@@ -2515,27 +2858,27 @@
         <v>8</v>
       </c>
       <c r="B86" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="D86" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="37"/>
@@ -2544,10 +2887,10 @@
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="37"/>
@@ -2556,10 +2899,10 @@
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="37"/>
@@ -2568,10 +2911,10 @@
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="37"/>
@@ -2580,10 +2923,10 @@
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="37"/>
@@ -2592,13 +2935,13 @@
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E92" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" s="37"/>
     </row>
@@ -2606,13 +2949,13 @@
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E93" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" s="37"/>
     </row>
@@ -2620,13 +2963,13 @@
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E94" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" s="37"/>
     </row>
@@ -2634,10 +2977,10 @@
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="37"/>
@@ -2646,10 +2989,10 @@
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
       <c r="C96" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="37"/>
@@ -2658,10 +3001,10 @@
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E97" s="29"/>
       <c r="F97" s="38"/>
@@ -2671,27 +3014,27 @@
         <v>9</v>
       </c>
       <c r="B98" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="D98" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
       <c r="C99" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="37"/>
@@ -2700,10 +3043,10 @@
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
       <c r="C100" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="37"/>
@@ -2712,10 +3055,10 @@
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
       <c r="C101" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="37"/>
@@ -2724,10 +3067,10 @@
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
       <c r="C102" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="37"/>
@@ -2736,10 +3079,10 @@
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
       <c r="C103" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="37"/>
@@ -2748,13 +3091,13 @@
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
       <c r="C104" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D104" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E104" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F104" s="37"/>
     </row>
@@ -2762,13 +3105,13 @@
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
       <c r="C105" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D105" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E105" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F105" s="37"/>
     </row>
@@ -2776,13 +3119,13 @@
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
       <c r="C106" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D106" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E106" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" s="37"/>
     </row>
@@ -2790,10 +3133,10 @@
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="37"/>
@@ -2802,10 +3145,10 @@
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
       <c r="C108" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="37"/>
@@ -2814,10 +3157,10 @@
       <c r="A109" s="25"/>
       <c r="B109" s="26"/>
       <c r="C109" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="38"/>
@@ -2827,27 +3170,27 @@
         <v>10</v>
       </c>
       <c r="B110" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="D110" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="37"/>
@@ -2856,10 +3199,10 @@
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="37"/>
@@ -2868,10 +3211,10 @@
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E113" s="23"/>
       <c r="F113" s="37"/>
@@ -2880,10 +3223,10 @@
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
       <c r="C114" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="37"/>
@@ -2892,10 +3235,10 @@
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
       <c r="C115" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E115" s="23"/>
       <c r="F115" s="37"/>
@@ -2904,13 +3247,13 @@
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
       <c r="C116" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E116" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F116" s="37"/>
     </row>
@@ -2918,13 +3261,13 @@
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
       <c r="C117" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D117" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E117" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F117" s="37"/>
     </row>
@@ -2932,13 +3275,13 @@
       <c r="A118" s="19"/>
       <c r="B118" s="20"/>
       <c r="C118" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D118" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D118" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E118" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118" s="37"/>
     </row>
@@ -2946,10 +3289,10 @@
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
       <c r="C119" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E119" s="23"/>
       <c r="F119" s="37"/>
@@ -2958,10 +3301,10 @@
       <c r="A120" s="19"/>
       <c r="B120" s="20"/>
       <c r="C120" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="37"/>
@@ -2970,10 +3313,10 @@
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
       <c r="C121" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="38"/>
@@ -2983,27 +3326,27 @@
         <v>11</v>
       </c>
       <c r="B122" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="D122" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
       <c r="C123" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E123" s="23"/>
       <c r="F123" s="37"/>
@@ -3012,10 +3355,10 @@
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
       <c r="C124" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E124" s="23"/>
       <c r="F124" s="37"/>
@@ -3024,10 +3367,10 @@
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
       <c r="C125" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E125" s="23"/>
       <c r="F125" s="37"/>
@@ -3036,10 +3379,10 @@
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
       <c r="C126" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E126" s="23"/>
       <c r="F126" s="37"/>
@@ -3048,10 +3391,10 @@
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
       <c r="C127" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E127" s="23"/>
       <c r="F127" s="37"/>
@@ -3060,13 +3403,13 @@
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
       <c r="C128" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D128" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D128" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E128" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F128" s="37"/>
     </row>
@@ -3074,13 +3417,13 @@
       <c r="A129" s="19"/>
       <c r="B129" s="20"/>
       <c r="C129" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D129" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E129" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F129" s="37"/>
     </row>
@@ -3088,13 +3431,13 @@
       <c r="A130" s="19"/>
       <c r="B130" s="20"/>
       <c r="C130" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E130" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F130" s="37"/>
     </row>
@@ -3102,10 +3445,10 @@
       <c r="A131" s="19"/>
       <c r="B131" s="20"/>
       <c r="C131" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E131" s="23"/>
       <c r="F131" s="37"/>
@@ -3114,10 +3457,10 @@
       <c r="A132" s="19"/>
       <c r="B132" s="20"/>
       <c r="C132" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E132" s="23"/>
       <c r="F132" s="37"/>
@@ -3126,10 +3469,10 @@
       <c r="A133" s="25"/>
       <c r="B133" s="26"/>
       <c r="C133" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D133" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E133" s="29"/>
       <c r="F133" s="38"/>
@@ -3139,27 +3482,27 @@
         <v>12</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C134" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="20"/>
       <c r="C135" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E135" s="23"/>
       <c r="F135" s="37"/>
@@ -3168,10 +3511,10 @@
       <c r="A136" s="19"/>
       <c r="B136" s="20"/>
       <c r="C136" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="37"/>
@@ -3180,10 +3523,10 @@
       <c r="A137" s="19"/>
       <c r="B137" s="20"/>
       <c r="C137" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E137" s="23"/>
       <c r="F137" s="37"/>
@@ -3192,10 +3535,10 @@
       <c r="A138" s="19"/>
       <c r="B138" s="20"/>
       <c r="C138" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E138" s="23"/>
       <c r="F138" s="37"/>
@@ -3204,10 +3547,10 @@
       <c r="A139" s="19"/>
       <c r="B139" s="20"/>
       <c r="C139" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D139" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E139" s="23"/>
       <c r="F139" s="37"/>
@@ -3216,13 +3559,13 @@
       <c r="A140" s="19"/>
       <c r="B140" s="20"/>
       <c r="C140" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D140" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E140" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F140" s="37"/>
     </row>
@@ -3230,13 +3573,13 @@
       <c r="A141" s="19"/>
       <c r="B141" s="20"/>
       <c r="C141" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D141" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E141" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F141" s="37"/>
     </row>
@@ -3244,13 +3587,13 @@
       <c r="A142" s="19"/>
       <c r="B142" s="20"/>
       <c r="C142" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E142" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F142" s="37"/>
     </row>
@@ -3258,10 +3601,10 @@
       <c r="A143" s="19"/>
       <c r="B143" s="20"/>
       <c r="C143" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E143" s="23"/>
       <c r="F143" s="37"/>
@@ -3270,10 +3613,10 @@
       <c r="A144" s="19"/>
       <c r="B144" s="20"/>
       <c r="C144" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D144" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E144" s="23"/>
       <c r="F144" s="37"/>
@@ -3282,10 +3625,10 @@
       <c r="A145" s="25"/>
       <c r="B145" s="26"/>
       <c r="C145" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D145" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D145" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E145" s="29"/>
       <c r="F145" s="38"/>
@@ -3295,27 +3638,27 @@
         <v>13</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="20"/>
       <c r="C147" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D147" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E147" s="23"/>
       <c r="F147" s="37"/>
@@ -3324,10 +3667,10 @@
       <c r="A148" s="19"/>
       <c r="B148" s="20"/>
       <c r="C148" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E148" s="23"/>
       <c r="F148" s="37"/>
@@ -3336,10 +3679,10 @@
       <c r="A149" s="19"/>
       <c r="B149" s="20"/>
       <c r="C149" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D149" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E149" s="23"/>
       <c r="F149" s="37"/>
@@ -3348,10 +3691,10 @@
       <c r="A150" s="19"/>
       <c r="B150" s="20"/>
       <c r="C150" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E150" s="23"/>
       <c r="F150" s="37"/>
@@ -3360,10 +3703,10 @@
       <c r="A151" s="19"/>
       <c r="B151" s="20"/>
       <c r="C151" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E151" s="23"/>
       <c r="F151" s="37"/>
@@ -3372,13 +3715,13 @@
       <c r="A152" s="19"/>
       <c r="B152" s="20"/>
       <c r="C152" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D152" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E152" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F152" s="37"/>
     </row>
@@ -3386,13 +3729,13 @@
       <c r="A153" s="19"/>
       <c r="B153" s="20"/>
       <c r="C153" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E153" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F153" s="37"/>
     </row>
@@ -3400,13 +3743,13 @@
       <c r="A154" s="19"/>
       <c r="B154" s="20"/>
       <c r="C154" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D154" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D154" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E154" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F154" s="37"/>
     </row>
@@ -3414,10 +3757,10 @@
       <c r="A155" s="19"/>
       <c r="B155" s="20"/>
       <c r="C155" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D155" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E155" s="23"/>
       <c r="F155" s="37"/>
@@ -3426,10 +3769,10 @@
       <c r="A156" s="19"/>
       <c r="B156" s="20"/>
       <c r="C156" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D156" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E156" s="23"/>
       <c r="F156" s="37"/>
@@ -3438,10 +3781,10 @@
       <c r="A157" s="25"/>
       <c r="B157" s="26"/>
       <c r="C157" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D157" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E157" s="29"/>
       <c r="F157" s="38"/>
@@ -3451,27 +3794,27 @@
         <v>14</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C158" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="20"/>
       <c r="C159" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D159" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E159" s="23"/>
       <c r="F159" s="37"/>
@@ -3480,10 +3823,10 @@
       <c r="A160" s="19"/>
       <c r="B160" s="20"/>
       <c r="C160" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D160" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E160" s="23"/>
       <c r="F160" s="37"/>
@@ -3492,10 +3835,10 @@
       <c r="A161" s="19"/>
       <c r="B161" s="20"/>
       <c r="C161" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D161" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E161" s="23"/>
       <c r="F161" s="37"/>
@@ -3504,10 +3847,10 @@
       <c r="A162" s="19"/>
       <c r="B162" s="20"/>
       <c r="C162" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E162" s="23"/>
       <c r="F162" s="37"/>
@@ -3516,10 +3859,10 @@
       <c r="A163" s="19"/>
       <c r="B163" s="20"/>
       <c r="C163" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D163" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E163" s="23"/>
       <c r="F163" s="37"/>
@@ -3528,13 +3871,13 @@
       <c r="A164" s="19"/>
       <c r="B164" s="20"/>
       <c r="C164" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D164" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D164" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E164" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F164" s="37"/>
     </row>
@@ -3542,10 +3885,10 @@
       <c r="A165" s="19"/>
       <c r="B165" s="20"/>
       <c r="C165" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="E165" s="32"/>
       <c r="F165" s="37"/>
@@ -3554,13 +3897,13 @@
       <c r="A166" s="19"/>
       <c r="B166" s="20"/>
       <c r="C166" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D166" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E166" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F166" s="37"/>
     </row>
@@ -3568,10 +3911,10 @@
       <c r="A167" s="19"/>
       <c r="B167" s="20"/>
       <c r="C167" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D167" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E167" s="23"/>
       <c r="F167" s="37"/>
@@ -3580,10 +3923,10 @@
       <c r="A168" s="19"/>
       <c r="B168" s="20"/>
       <c r="C168" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D168" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E168" s="23"/>
       <c r="F168" s="37"/>
@@ -3592,10 +3935,10 @@
       <c r="A169" s="25"/>
       <c r="B169" s="26"/>
       <c r="C169" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D169" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="38"/>
@@ -3605,27 +3948,27 @@
         <v>15</v>
       </c>
       <c r="B170" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C170" s="16" t="s">
+      <c r="D170" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="20"/>
       <c r="C171" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D171" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E171" s="23"/>
       <c r="F171" s="37"/>
@@ -3634,10 +3977,10 @@
       <c r="A172" s="19"/>
       <c r="B172" s="20"/>
       <c r="C172" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E172" s="23"/>
       <c r="F172" s="37"/>
@@ -3646,10 +3989,10 @@
       <c r="A173" s="19"/>
       <c r="B173" s="20"/>
       <c r="C173" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D173" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E173" s="23"/>
       <c r="F173" s="37"/>
@@ -3658,10 +4001,10 @@
       <c r="A174" s="19"/>
       <c r="B174" s="20"/>
       <c r="C174" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E174" s="23"/>
       <c r="F174" s="37"/>
@@ -3670,10 +4013,10 @@
       <c r="A175" s="19"/>
       <c r="B175" s="20"/>
       <c r="C175" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E175" s="23"/>
       <c r="F175" s="37"/>
@@ -3682,13 +4025,13 @@
       <c r="A176" s="19"/>
       <c r="B176" s="20"/>
       <c r="C176" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D176" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E176" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F176" s="37"/>
     </row>
@@ -3696,13 +4039,13 @@
       <c r="A177" s="19"/>
       <c r="B177" s="20"/>
       <c r="C177" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D177" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E177" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F177" s="37"/>
     </row>
@@ -3710,13 +4053,13 @@
       <c r="A178" s="19"/>
       <c r="B178" s="20"/>
       <c r="C178" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D178" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D178" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E178" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F178" s="37"/>
     </row>
@@ -3724,10 +4067,10 @@
       <c r="A179" s="19"/>
       <c r="B179" s="20"/>
       <c r="C179" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D179" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E179" s="23"/>
       <c r="F179" s="37"/>
@@ -3736,10 +4079,10 @@
       <c r="A180" s="19"/>
       <c r="B180" s="20"/>
       <c r="C180" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E180" s="23"/>
       <c r="F180" s="37"/>
@@ -3748,10 +4091,10 @@
       <c r="A181" s="25"/>
       <c r="B181" s="26"/>
       <c r="C181" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D181" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D181" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E181" s="29"/>
       <c r="F181" s="38"/>
@@ -3761,27 +4104,27 @@
         <v>16</v>
       </c>
       <c r="B182" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="16" t="s">
+      <c r="D182" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D182" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="19"/>
       <c r="B183" s="20"/>
       <c r="C183" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D183" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D183" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E183" s="23"/>
       <c r="F183" s="37"/>
@@ -3790,10 +4133,10 @@
       <c r="A184" s="19"/>
       <c r="B184" s="20"/>
       <c r="C184" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D184" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D184" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E184" s="23"/>
       <c r="F184" s="37"/>
@@ -3802,10 +4145,10 @@
       <c r="A185" s="19"/>
       <c r="B185" s="20"/>
       <c r="C185" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E185" s="23"/>
       <c r="F185" s="37"/>
@@ -3814,10 +4157,10 @@
       <c r="A186" s="19"/>
       <c r="B186" s="20"/>
       <c r="C186" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E186" s="23"/>
       <c r="F186" s="37"/>
@@ -3826,10 +4169,10 @@
       <c r="A187" s="19"/>
       <c r="B187" s="20"/>
       <c r="C187" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E187" s="23"/>
       <c r="F187" s="37"/>
@@ -3838,13 +4181,13 @@
       <c r="A188" s="19"/>
       <c r="B188" s="20"/>
       <c r="C188" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D188" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D188" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E188" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F188" s="37"/>
     </row>
@@ -3852,13 +4195,13 @@
       <c r="A189" s="19"/>
       <c r="B189" s="20"/>
       <c r="C189" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D189" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D189" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E189" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F189" s="37"/>
     </row>
@@ -3866,13 +4209,13 @@
       <c r="A190" s="19"/>
       <c r="B190" s="20"/>
       <c r="C190" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D190" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D190" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E190" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F190" s="37"/>
     </row>
@@ -3880,10 +4223,10 @@
       <c r="A191" s="19"/>
       <c r="B191" s="20"/>
       <c r="C191" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D191" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D191" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E191" s="23"/>
       <c r="F191" s="37"/>
@@ -3892,10 +4235,10 @@
       <c r="A192" s="19"/>
       <c r="B192" s="20"/>
       <c r="C192" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D192" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E192" s="23"/>
       <c r="F192" s="37"/>
@@ -3904,10 +4247,10 @@
       <c r="A193" s="25"/>
       <c r="B193" s="26"/>
       <c r="C193" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D193" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D193" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E193" s="29"/>
       <c r="F193" s="38"/>
@@ -3917,27 +4260,27 @@
         <v>17</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C194" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E194" s="18"/>
       <c r="F194" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="19"/>
       <c r="B195" s="20"/>
       <c r="C195" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D195" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D195" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E195" s="23"/>
       <c r="F195" s="37"/>
@@ -3946,10 +4289,10 @@
       <c r="A196" s="19"/>
       <c r="B196" s="20"/>
       <c r="C196" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D196" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D196" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E196" s="23"/>
       <c r="F196" s="37"/>
@@ -3958,10 +4301,10 @@
       <c r="A197" s="19"/>
       <c r="B197" s="20"/>
       <c r="C197" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D197" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D197" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E197" s="23"/>
       <c r="F197" s="37"/>
@@ -3970,10 +4313,10 @@
       <c r="A198" s="19"/>
       <c r="B198" s="20"/>
       <c r="C198" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E198" s="23"/>
       <c r="F198" s="37"/>
@@ -3982,10 +4325,10 @@
       <c r="A199" s="19"/>
       <c r="B199" s="20"/>
       <c r="C199" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D199" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E199" s="23"/>
       <c r="F199" s="37"/>
@@ -3994,13 +4337,13 @@
       <c r="A200" s="19"/>
       <c r="B200" s="20"/>
       <c r="C200" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D200" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E200" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F200" s="37"/>
     </row>
@@ -4008,13 +4351,13 @@
       <c r="A201" s="19"/>
       <c r="B201" s="20"/>
       <c r="C201" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D201" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D201" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E201" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F201" s="37"/>
     </row>
@@ -4022,13 +4365,13 @@
       <c r="A202" s="19"/>
       <c r="B202" s="20"/>
       <c r="C202" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D202" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D202" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E202" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F202" s="37"/>
     </row>
@@ -4036,10 +4379,10 @@
       <c r="A203" s="19"/>
       <c r="B203" s="20"/>
       <c r="C203" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D203" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D203" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E203" s="23"/>
       <c r="F203" s="37"/>
@@ -4048,10 +4391,10 @@
       <c r="A204" s="19"/>
       <c r="B204" s="20"/>
       <c r="C204" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D204" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D204" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E204" s="23"/>
       <c r="F204" s="37"/>
@@ -4060,10 +4403,10 @@
       <c r="A205" s="25"/>
       <c r="B205" s="26"/>
       <c r="C205" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D205" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D205" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E205" s="29"/>
       <c r="F205" s="38"/>
@@ -4073,27 +4416,27 @@
         <v>18</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C206" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E206" s="18"/>
       <c r="F206" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="19"/>
       <c r="B207" s="20"/>
       <c r="C207" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E207" s="23"/>
       <c r="F207" s="37"/>
@@ -4102,10 +4445,10 @@
       <c r="A208" s="19"/>
       <c r="B208" s="20"/>
       <c r="C208" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D208" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E208" s="23"/>
       <c r="F208" s="37"/>
@@ -4114,10 +4457,10 @@
       <c r="A209" s="19"/>
       <c r="B209" s="20"/>
       <c r="C209" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D209" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E209" s="23"/>
       <c r="F209" s="37"/>
@@ -4126,10 +4469,10 @@
       <c r="A210" s="19"/>
       <c r="B210" s="20"/>
       <c r="C210" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E210" s="23"/>
       <c r="F210" s="37"/>
@@ -4138,10 +4481,10 @@
       <c r="A211" s="19"/>
       <c r="B211" s="20"/>
       <c r="C211" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D211" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D211" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E211" s="23"/>
       <c r="F211" s="37"/>
@@ -4150,13 +4493,13 @@
       <c r="A212" s="19"/>
       <c r="B212" s="20"/>
       <c r="C212" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D212" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E212" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F212" s="37"/>
     </row>
@@ -4164,13 +4507,13 @@
       <c r="A213" s="19"/>
       <c r="B213" s="20"/>
       <c r="C213" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D213" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E213" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F213" s="37"/>
     </row>
@@ -4178,13 +4521,13 @@
       <c r="A214" s="19"/>
       <c r="B214" s="20"/>
       <c r="C214" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D214" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D214" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E214" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F214" s="37"/>
     </row>
@@ -4192,10 +4535,10 @@
       <c r="A215" s="19"/>
       <c r="B215" s="20"/>
       <c r="C215" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D215" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D215" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E215" s="23"/>
       <c r="F215" s="37"/>
@@ -4204,10 +4547,10 @@
       <c r="A216" s="19"/>
       <c r="B216" s="20"/>
       <c r="C216" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D216" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E216" s="23"/>
       <c r="F216" s="37"/>
@@ -4216,10 +4559,10 @@
       <c r="A217" s="25"/>
       <c r="B217" s="26"/>
       <c r="C217" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D217" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E217" s="29"/>
       <c r="F217" s="38"/>
@@ -4229,27 +4572,27 @@
         <v>19</v>
       </c>
       <c r="B218" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C218" s="16" t="s">
+      <c r="D218" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D218" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E218" s="18"/>
       <c r="F218" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="19"/>
       <c r="B219" s="20"/>
       <c r="C219" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D219" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D219" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E219" s="23"/>
       <c r="F219" s="37"/>
@@ -4258,10 +4601,10 @@
       <c r="A220" s="19"/>
       <c r="B220" s="20"/>
       <c r="C220" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D220" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E220" s="23"/>
       <c r="F220" s="37"/>
@@ -4270,10 +4613,10 @@
       <c r="A221" s="19"/>
       <c r="B221" s="20"/>
       <c r="C221" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E221" s="23"/>
       <c r="F221" s="37"/>
@@ -4282,10 +4625,10 @@
       <c r="A222" s="19"/>
       <c r="B222" s="20"/>
       <c r="C222" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E222" s="23"/>
       <c r="F222" s="37"/>
@@ -4294,10 +4637,10 @@
       <c r="A223" s="19"/>
       <c r="B223" s="20"/>
       <c r="C223" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D223" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E223" s="23"/>
       <c r="F223" s="37"/>
@@ -4306,13 +4649,13 @@
       <c r="A224" s="19"/>
       <c r="B224" s="20"/>
       <c r="C224" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D224" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D224" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E224" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F224" s="37"/>
     </row>
@@ -4320,13 +4663,13 @@
       <c r="A225" s="19"/>
       <c r="B225" s="20"/>
       <c r="C225" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D225" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D225" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E225" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F225" s="37"/>
     </row>
@@ -4334,13 +4677,13 @@
       <c r="A226" s="19"/>
       <c r="B226" s="20"/>
       <c r="C226" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D226" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D226" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E226" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F226" s="37"/>
     </row>
@@ -4348,10 +4691,10 @@
       <c r="A227" s="19"/>
       <c r="B227" s="20"/>
       <c r="C227" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D227" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D227" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E227" s="23"/>
       <c r="F227" s="37"/>
@@ -4360,10 +4703,10 @@
       <c r="A228" s="19"/>
       <c r="B228" s="20"/>
       <c r="C228" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D228" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D228" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E228" s="23"/>
       <c r="F228" s="37"/>
@@ -4372,10 +4715,10 @@
       <c r="A229" s="25"/>
       <c r="B229" s="26"/>
       <c r="C229" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D229" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E229" s="29"/>
       <c r="F229" s="38"/>
@@ -4385,27 +4728,27 @@
         <v>20</v>
       </c>
       <c r="B230" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C230" s="16" t="s">
+      <c r="D230" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D230" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E230" s="18"/>
       <c r="F230" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="19"/>
       <c r="B231" s="20"/>
       <c r="C231" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D231" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E231" s="23"/>
       <c r="F231" s="37"/>
@@ -4414,10 +4757,10 @@
       <c r="A232" s="19"/>
       <c r="B232" s="20"/>
       <c r="C232" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D232" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D232" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E232" s="23"/>
       <c r="F232" s="37"/>
@@ -4426,10 +4769,10 @@
       <c r="A233" s="19"/>
       <c r="B233" s="20"/>
       <c r="C233" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D233" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D233" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E233" s="23"/>
       <c r="F233" s="37"/>
@@ -4438,10 +4781,10 @@
       <c r="A234" s="19"/>
       <c r="B234" s="20"/>
       <c r="C234" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D234" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E234" s="23"/>
       <c r="F234" s="37"/>
@@ -4450,10 +4793,10 @@
       <c r="A235" s="19"/>
       <c r="B235" s="20"/>
       <c r="C235" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D235" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E235" s="23"/>
       <c r="F235" s="37"/>
@@ -4462,13 +4805,13 @@
       <c r="A236" s="19"/>
       <c r="B236" s="20"/>
       <c r="C236" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D236" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D236" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E236" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F236" s="37"/>
     </row>
@@ -4476,13 +4819,13 @@
       <c r="A237" s="19"/>
       <c r="B237" s="20"/>
       <c r="C237" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D237" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D237" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E237" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F237" s="37"/>
     </row>
@@ -4490,13 +4833,13 @@
       <c r="A238" s="19"/>
       <c r="B238" s="20"/>
       <c r="C238" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D238" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E238" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F238" s="37"/>
     </row>
@@ -4504,10 +4847,10 @@
       <c r="A239" s="19"/>
       <c r="B239" s="20"/>
       <c r="C239" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D239" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D239" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E239" s="23"/>
       <c r="F239" s="37"/>
@@ -4516,10 +4859,10 @@
       <c r="A240" s="19"/>
       <c r="B240" s="20"/>
       <c r="C240" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D240" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D240" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E240" s="23"/>
       <c r="F240" s="37"/>
@@ -4528,10 +4871,10 @@
       <c r="A241" s="25"/>
       <c r="B241" s="26"/>
       <c r="C241" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D241" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D241" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E241" s="29"/>
       <c r="F241" s="38"/>
@@ -4541,27 +4884,27 @@
         <v>21</v>
       </c>
       <c r="B242" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C242" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C242" s="16" t="s">
+      <c r="D242" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D242" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E242" s="18"/>
       <c r="F242" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="19"/>
       <c r="B243" s="20"/>
       <c r="C243" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D243" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D243" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E243" s="23"/>
       <c r="F243" s="37"/>
@@ -4570,10 +4913,10 @@
       <c r="A244" s="19"/>
       <c r="B244" s="20"/>
       <c r="C244" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D244" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D244" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E244" s="23"/>
       <c r="F244" s="37"/>
@@ -4582,10 +4925,10 @@
       <c r="A245" s="19"/>
       <c r="B245" s="20"/>
       <c r="C245" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D245" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D245" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E245" s="23"/>
       <c r="F245" s="37"/>
@@ -4594,10 +4937,10 @@
       <c r="A246" s="19"/>
       <c r="B246" s="20"/>
       <c r="C246" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D246" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E246" s="23"/>
       <c r="F246" s="37"/>
@@ -4606,10 +4949,10 @@
       <c r="A247" s="19"/>
       <c r="B247" s="20"/>
       <c r="C247" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D247" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D247" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E247" s="23"/>
       <c r="F247" s="37"/>
@@ -4618,13 +4961,13 @@
       <c r="A248" s="19"/>
       <c r="B248" s="20"/>
       <c r="C248" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D248" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D248" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E248" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F248" s="37"/>
     </row>
@@ -4632,13 +4975,13 @@
       <c r="A249" s="19"/>
       <c r="B249" s="20"/>
       <c r="C249" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D249" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D249" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E249" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F249" s="37"/>
     </row>
@@ -4646,13 +4989,13 @@
       <c r="A250" s="19"/>
       <c r="B250" s="20"/>
       <c r="C250" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D250" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="E250" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F250" s="37"/>
     </row>
@@ -4660,10 +5003,10 @@
       <c r="A251" s="19"/>
       <c r="B251" s="20"/>
       <c r="C251" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D251" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D251" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E251" s="23"/>
       <c r="F251" s="37"/>
@@ -4672,10 +5015,10 @@
       <c r="A252" s="19"/>
       <c r="B252" s="20"/>
       <c r="C252" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D252" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D252" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E252" s="23"/>
       <c r="F252" s="37"/>
@@ -4684,10 +5027,10 @@
       <c r="A253" s="25"/>
       <c r="B253" s="26"/>
       <c r="C253" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D253" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D253" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E253" s="29"/>
       <c r="F253" s="38"/>
@@ -4697,27 +5040,27 @@
         <v>22</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C254" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="E254" s="18"/>
       <c r="F254" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="19"/>
       <c r="B255" s="20"/>
       <c r="C255" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D255" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="D255" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="E255" s="23"/>
       <c r="F255" s="37"/>
@@ -4726,10 +5069,10 @@
       <c r="A256" s="19"/>
       <c r="B256" s="20"/>
       <c r="C256" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D256" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="D256" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="E256" s="23"/>
       <c r="F256" s="37"/>
@@ -4738,10 +5081,10 @@
       <c r="A257" s="19"/>
       <c r="B257" s="20"/>
       <c r="C257" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D257" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D257" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E257" s="23"/>
       <c r="F257" s="37"/>
@@ -4750,10 +5093,10 @@
       <c r="A258" s="19"/>
       <c r="B258" s="20"/>
       <c r="C258" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D258" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E258" s="23"/>
       <c r="F258" s="37"/>
@@ -4762,10 +5105,10 @@
       <c r="A259" s="19"/>
       <c r="B259" s="20"/>
       <c r="C259" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D259" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="E259" s="23"/>
       <c r="F259" s="37"/>
@@ -4774,13 +5117,13 @@
       <c r="A260" s="19"/>
       <c r="B260" s="20"/>
       <c r="C260" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D260" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D260" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="E260" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F260" s="37"/>
     </row>
@@ -4788,13 +5131,13 @@
       <c r="A261" s="19"/>
       <c r="B261" s="20"/>
       <c r="C261" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D261" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D261" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="E261" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F261" s="37"/>
     </row>
@@ -4802,10 +5145,10 @@
       <c r="A262" s="19"/>
       <c r="B262" s="20"/>
       <c r="C262" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="D262" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="E262" s="35"/>
       <c r="F262" s="37"/>
@@ -4814,10 +5157,10 @@
       <c r="A263" s="19"/>
       <c r="B263" s="20"/>
       <c r="C263" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D263" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D263" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E263" s="23"/>
       <c r="F263" s="37"/>
@@ -4826,10 +5169,10 @@
       <c r="A264" s="19"/>
       <c r="B264" s="20"/>
       <c r="C264" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D264" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="D264" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E264" s="23"/>
       <c r="F264" s="37"/>
@@ -4838,31 +5181,16 @@
       <c r="A265" s="25"/>
       <c r="B265" s="26"/>
       <c r="C265" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D265" s="28" t="s">
         <v>78</v>
-      </c>
-      <c r="D265" s="28" t="s">
-        <v>79</v>
       </c>
       <c r="E265" s="29"/>
       <c r="F265" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="F14:F25"/>
-    <mergeCell ref="F26:F37"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="F50:F61"/>
-    <mergeCell ref="F62:F73"/>
-    <mergeCell ref="F74:F85"/>
-    <mergeCell ref="F86:F97"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="F110:F121"/>
-    <mergeCell ref="F122:F133"/>
-    <mergeCell ref="F134:F145"/>
-    <mergeCell ref="F146:F157"/>
-    <mergeCell ref="F158:F169"/>
-    <mergeCell ref="F170:F181"/>
     <mergeCell ref="F242:F253"/>
     <mergeCell ref="F254:F265"/>
     <mergeCell ref="F182:F193"/>
@@ -4870,6 +5198,21 @@
     <mergeCell ref="F206:F217"/>
     <mergeCell ref="F218:F229"/>
     <mergeCell ref="F230:F241"/>
+    <mergeCell ref="F122:F133"/>
+    <mergeCell ref="F134:F145"/>
+    <mergeCell ref="F146:F157"/>
+    <mergeCell ref="F158:F169"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="F62:F73"/>
+    <mergeCell ref="F74:F85"/>
+    <mergeCell ref="F86:F97"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="F110:F121"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="F14:F25"/>
+    <mergeCell ref="F26:F37"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="F50:F61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/12_Data_Edit_Activity_News.xlsx
+++ b/tests/12_Data_Edit_Activity_News.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF46503-6069-4ABE-A993-8B4F6F1B9EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413B6A6-8599-4878-8304-8B84C7AF3B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="96">
   <si>
     <t>TCID</t>
   </si>
@@ -298,12 +298,6 @@
     <t>Revise</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Result P/F </t>
   </si>
   <si>
@@ -323,9 +317,6 @@
   </si>
   <si>
     <t>Revise Manual Testing</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -689,6 +680,22 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,27 +708,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9"/>
@@ -739,16 +730,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1030,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="G2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1068,12 +1049,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="36" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1098,12 +1079,8 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1126,12 +1103,8 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1153,15 +1126,9 @@
         <v>15</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1183,15 +1150,9 @@
         <v>17</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1214,12 +1175,8 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1242,12 +1199,8 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1270,12 +1223,8 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1298,12 +1247,8 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1326,12 +1271,8 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1354,12 +1295,8 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1382,12 +1319,8 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1410,12 +1343,8 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1438,12 +1367,8 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1466,12 +1391,8 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1494,12 +1415,8 @@
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1522,12 +1439,8 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1550,12 +1463,8 @@
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1578,12 +1487,8 @@
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1606,106 +1511,102 @@
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44" t="s">
+      <c r="I24" s="40">
+        <f>COUNTIF(H2:H20,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="40" t="e">
+        <f>I24*100/I26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="42" t="s">
+      <c r="I25" s="40">
+        <f>COUNTIF(H2:H20,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="40" t="e">
+        <f>I25*100/I26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="45">
-        <f>COUNTIF(H2:H20,"Pass")</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="45">
-        <f>I24*100/I26</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="45">
-        <f>COUNTIF(H2:H20,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="45">
-        <f>I25*100/I26</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="42" t="s">
+      <c r="I26" s="40">
+        <f>SUM(I24:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="45">
-        <f>SUM(I24:I25)</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="40">
+        <f>COUNTIF(J2:J20,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="40" t="e">
+        <f>I29*100/I31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="45">
-        <f>COUNTIF(J2:J20,"Pass")</f>
-        <v>19</v>
-      </c>
-      <c r="J29" s="45">
-        <f>I29*100/I31</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="45">
+      <c r="I30" s="40">
         <f>COUNTIF(J2:J20,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="40" t="e">
         <f>I30*100/I31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="40">
+        <f>SUM(I29:I30)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="45">
-        <f>SUM(I29:I30)</f>
-        <v>19</v>
-      </c>
-      <c r="J31" s="45">
+      <c r="J31" s="40">
         <v>100</v>
       </c>
     </row>
@@ -1715,11 +1616,11 @@
     <mergeCell ref="H28:I28"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1777,7 +1678,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1791,7 +1692,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="23"/>
-      <c r="F3" s="37"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -1803,7 +1704,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -1815,7 +1716,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="37"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
@@ -1827,7 +1728,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="37"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -1839,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -1853,7 +1754,7 @@
       <c r="E8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1867,7 +1768,7 @@
       <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -1881,7 +1782,7 @@
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1893,7 +1794,7 @@
         <v>74</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -1905,7 +1806,7 @@
         <v>76</v>
       </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
@@ -1917,7 +1818,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="38"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -1933,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1947,7 +1848,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -1959,7 +1860,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -1971,7 +1872,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -1983,7 +1884,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1995,7 +1896,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -2009,7 +1910,7 @@
       <c r="E20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -2023,7 +1924,7 @@
       <c r="E21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -2037,7 +1938,7 @@
       <c r="E22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -2049,7 +1950,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
@@ -2061,7 +1962,7 @@
         <v>76</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
@@ -2073,7 +1974,7 @@
         <v>78</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -2089,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2103,7 +2004,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="23"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -2115,7 +2016,7 @@
         <v>60</v>
       </c>
       <c r="E28" s="23"/>
-      <c r="F28" s="37"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -2127,7 +2028,7 @@
         <v>62</v>
       </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -2139,7 +2040,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="23"/>
-      <c r="F30" s="37"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
@@ -2151,7 +2052,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="23"/>
-      <c r="F31" s="37"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -2165,7 +2066,7 @@
       <c r="E32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
@@ -2179,7 +2080,7 @@
       <c r="E33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="37"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -2193,7 +2094,7 @@
       <c r="E34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="37"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -2205,7 +2106,7 @@
         <v>74</v>
       </c>
       <c r="E35" s="23"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -2217,7 +2118,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="23"/>
-      <c r="F36" s="37"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -2229,7 +2130,7 @@
         <v>78</v>
       </c>
       <c r="E37" s="29"/>
-      <c r="F37" s="38"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -2245,7 +2146,7 @@
         <v>55</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2259,7 +2160,7 @@
         <v>58</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="37"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
@@ -2271,7 +2172,7 @@
         <v>60</v>
       </c>
       <c r="E40" s="23"/>
-      <c r="F40" s="37"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
@@ -2283,7 +2184,7 @@
         <v>62</v>
       </c>
       <c r="E41" s="23"/>
-      <c r="F41" s="37"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
@@ -2295,7 +2196,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="23"/>
-      <c r="F42" s="37"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
@@ -2307,7 +2208,7 @@
         <v>66</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="37"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
@@ -2321,7 +2222,7 @@
       <c r="E44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="37"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
@@ -2335,7 +2236,7 @@
       <c r="E45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="37"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
@@ -2349,7 +2250,7 @@
       <c r="E46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="37"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
@@ -2361,7 +2262,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="37"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
@@ -2373,7 +2274,7 @@
         <v>76</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="F48" s="37"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
@@ -2385,7 +2286,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="29"/>
-      <c r="F49" s="38"/>
+      <c r="F49" s="44"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -2401,7 +2302,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2415,7 +2316,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="23"/>
-      <c r="F51" s="37"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
@@ -2427,7 +2328,7 @@
         <v>60</v>
       </c>
       <c r="E52" s="23"/>
-      <c r="F52" s="37"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
@@ -2439,7 +2340,7 @@
         <v>62</v>
       </c>
       <c r="E53" s="23"/>
-      <c r="F53" s="37"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
@@ -2451,7 +2352,7 @@
         <v>64</v>
       </c>
       <c r="E54" s="23"/>
-      <c r="F54" s="37"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
@@ -2463,7 +2364,7 @@
         <v>66</v>
       </c>
       <c r="E55" s="23"/>
-      <c r="F55" s="37"/>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
@@ -2477,7 +2378,7 @@
       <c r="E56" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="37"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
@@ -2491,7 +2392,7 @@
       <c r="E57" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="37"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
@@ -2505,7 +2406,7 @@
       <c r="E58" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="37"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
@@ -2517,7 +2418,7 @@
         <v>74</v>
       </c>
       <c r="E59" s="23"/>
-      <c r="F59" s="37"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
@@ -2529,7 +2430,7 @@
         <v>76</v>
       </c>
       <c r="E60" s="23"/>
-      <c r="F60" s="37"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
@@ -2541,7 +2442,7 @@
         <v>78</v>
       </c>
       <c r="E61" s="29"/>
-      <c r="F61" s="38"/>
+      <c r="F61" s="44"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
@@ -2557,7 +2458,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="18"/>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2571,7 +2472,7 @@
         <v>58</v>
       </c>
       <c r="E63" s="23"/>
-      <c r="F63" s="37"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
@@ -2583,7 +2484,7 @@
         <v>60</v>
       </c>
       <c r="E64" s="23"/>
-      <c r="F64" s="37"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
@@ -2595,7 +2496,7 @@
         <v>62</v>
       </c>
       <c r="E65" s="23"/>
-      <c r="F65" s="37"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
@@ -2607,7 +2508,7 @@
         <v>64</v>
       </c>
       <c r="E66" s="23"/>
-      <c r="F66" s="37"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
@@ -2619,7 +2520,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="23"/>
-      <c r="F67" s="37"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
@@ -2633,7 +2534,7 @@
       <c r="E68" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="37"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
@@ -2647,7 +2548,7 @@
       <c r="E69" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="37"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
@@ -2661,7 +2562,7 @@
       <c r="E70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="37"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
@@ -2673,7 +2574,7 @@
         <v>74</v>
       </c>
       <c r="E71" s="23"/>
-      <c r="F71" s="37"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
@@ -2685,7 +2586,7 @@
         <v>76</v>
       </c>
       <c r="E72" s="23"/>
-      <c r="F72" s="37"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
@@ -2697,7 +2598,7 @@
         <v>78</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="38"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -2713,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="E74" s="18"/>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2727,7 +2628,7 @@
         <v>58</v>
       </c>
       <c r="E75" s="23"/>
-      <c r="F75" s="37"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
@@ -2739,7 +2640,7 @@
         <v>60</v>
       </c>
       <c r="E76" s="23"/>
-      <c r="F76" s="37"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
@@ -2751,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="E77" s="23"/>
-      <c r="F77" s="37"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
@@ -2763,7 +2664,7 @@
         <v>64</v>
       </c>
       <c r="E78" s="23"/>
-      <c r="F78" s="37"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
@@ -2775,7 +2676,7 @@
         <v>66</v>
       </c>
       <c r="E79" s="23"/>
-      <c r="F79" s="37"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
@@ -2787,7 +2688,7 @@
         <v>68</v>
       </c>
       <c r="E80" s="32"/>
-      <c r="F80" s="37"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
@@ -2801,7 +2702,7 @@
       <c r="E81" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="37"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
@@ -2815,7 +2716,7 @@
       <c r="E82" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="37"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
@@ -2827,7 +2728,7 @@
         <v>74</v>
       </c>
       <c r="E83" s="23"/>
-      <c r="F83" s="37"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
@@ -2839,7 +2740,7 @@
         <v>76</v>
       </c>
       <c r="E84" s="23"/>
-      <c r="F84" s="37"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
@@ -2851,7 +2752,7 @@
         <v>78</v>
       </c>
       <c r="E85" s="29"/>
-      <c r="F85" s="38"/>
+      <c r="F85" s="44"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
@@ -2867,7 +2768,7 @@
         <v>55</v>
       </c>
       <c r="E86" s="18"/>
-      <c r="F86" s="36" t="s">
+      <c r="F86" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2881,7 +2782,7 @@
         <v>58</v>
       </c>
       <c r="E87" s="23"/>
-      <c r="F87" s="37"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
@@ -2893,7 +2794,7 @@
         <v>60</v>
       </c>
       <c r="E88" s="23"/>
-      <c r="F88" s="37"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
@@ -2905,7 +2806,7 @@
         <v>62</v>
       </c>
       <c r="E89" s="23"/>
-      <c r="F89" s="37"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
@@ -2917,7 +2818,7 @@
         <v>64</v>
       </c>
       <c r="E90" s="23"/>
-      <c r="F90" s="37"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
@@ -2929,7 +2830,7 @@
         <v>66</v>
       </c>
       <c r="E91" s="23"/>
-      <c r="F91" s="37"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
@@ -2943,7 +2844,7 @@
       <c r="E92" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="37"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
@@ -2957,7 +2858,7 @@
       <c r="E93" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="37"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
@@ -2971,7 +2872,7 @@
       <c r="E94" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="37"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
@@ -2983,7 +2884,7 @@
         <v>74</v>
       </c>
       <c r="E95" s="23"/>
-      <c r="F95" s="37"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
@@ -2995,7 +2896,7 @@
         <v>76</v>
       </c>
       <c r="E96" s="23"/>
-      <c r="F96" s="37"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
@@ -3007,7 +2908,7 @@
         <v>78</v>
       </c>
       <c r="E97" s="29"/>
-      <c r="F97" s="38"/>
+      <c r="F97" s="44"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
@@ -3023,7 +2924,7 @@
         <v>55</v>
       </c>
       <c r="E98" s="18"/>
-      <c r="F98" s="36" t="s">
+      <c r="F98" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3037,7 +2938,7 @@
         <v>58</v>
       </c>
       <c r="E99" s="23"/>
-      <c r="F99" s="37"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
@@ -3049,7 +2950,7 @@
         <v>60</v>
       </c>
       <c r="E100" s="23"/>
-      <c r="F100" s="37"/>
+      <c r="F100" s="43"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
@@ -3061,7 +2962,7 @@
         <v>62</v>
       </c>
       <c r="E101" s="23"/>
-      <c r="F101" s="37"/>
+      <c r="F101" s="43"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
@@ -3073,7 +2974,7 @@
         <v>64</v>
       </c>
       <c r="E102" s="23"/>
-      <c r="F102" s="37"/>
+      <c r="F102" s="43"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
@@ -3085,7 +2986,7 @@
         <v>66</v>
       </c>
       <c r="E103" s="23"/>
-      <c r="F103" s="37"/>
+      <c r="F103" s="43"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
@@ -3099,7 +3000,7 @@
       <c r="E104" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="37"/>
+      <c r="F104" s="43"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
@@ -3113,7 +3014,7 @@
       <c r="E105" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F105" s="37"/>
+      <c r="F105" s="43"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
@@ -3127,7 +3028,7 @@
       <c r="E106" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="37"/>
+      <c r="F106" s="43"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
@@ -3139,7 +3040,7 @@
         <v>74</v>
       </c>
       <c r="E107" s="23"/>
-      <c r="F107" s="37"/>
+      <c r="F107" s="43"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
@@ -3151,7 +3052,7 @@
         <v>76</v>
       </c>
       <c r="E108" s="23"/>
-      <c r="F108" s="37"/>
+      <c r="F108" s="43"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
@@ -3163,7 +3064,7 @@
         <v>78</v>
       </c>
       <c r="E109" s="29"/>
-      <c r="F109" s="38"/>
+      <c r="F109" s="44"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
@@ -3179,7 +3080,7 @@
         <v>55</v>
       </c>
       <c r="E110" s="18"/>
-      <c r="F110" s="36" t="s">
+      <c r="F110" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3193,7 +3094,7 @@
         <v>58</v>
       </c>
       <c r="E111" s="23"/>
-      <c r="F111" s="37"/>
+      <c r="F111" s="43"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
@@ -3205,7 +3106,7 @@
         <v>60</v>
       </c>
       <c r="E112" s="23"/>
-      <c r="F112" s="37"/>
+      <c r="F112" s="43"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
@@ -3217,7 +3118,7 @@
         <v>62</v>
       </c>
       <c r="E113" s="23"/>
-      <c r="F113" s="37"/>
+      <c r="F113" s="43"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
@@ -3229,7 +3130,7 @@
         <v>64</v>
       </c>
       <c r="E114" s="23"/>
-      <c r="F114" s="37"/>
+      <c r="F114" s="43"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
@@ -3241,7 +3142,7 @@
         <v>66</v>
       </c>
       <c r="E115" s="23"/>
-      <c r="F115" s="37"/>
+      <c r="F115" s="43"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
@@ -3255,7 +3156,7 @@
       <c r="E116" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F116" s="37"/>
+      <c r="F116" s="43"/>
     </row>
     <row r="117" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
@@ -3269,7 +3170,7 @@
       <c r="E117" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F117" s="37"/>
+      <c r="F117" s="43"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
@@ -3283,7 +3184,7 @@
       <c r="E118" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="37"/>
+      <c r="F118" s="43"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
@@ -3295,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="E119" s="23"/>
-      <c r="F119" s="37"/>
+      <c r="F119" s="43"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
@@ -3307,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="E120" s="23"/>
-      <c r="F120" s="37"/>
+      <c r="F120" s="43"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
@@ -3319,7 +3220,7 @@
         <v>78</v>
       </c>
       <c r="E121" s="29"/>
-      <c r="F121" s="38"/>
+      <c r="F121" s="44"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
@@ -3335,7 +3236,7 @@
         <v>55</v>
       </c>
       <c r="E122" s="18"/>
-      <c r="F122" s="36" t="s">
+      <c r="F122" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3349,7 +3250,7 @@
         <v>58</v>
       </c>
       <c r="E123" s="23"/>
-      <c r="F123" s="37"/>
+      <c r="F123" s="43"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
@@ -3361,7 +3262,7 @@
         <v>60</v>
       </c>
       <c r="E124" s="23"/>
-      <c r="F124" s="37"/>
+      <c r="F124" s="43"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
@@ -3373,7 +3274,7 @@
         <v>62</v>
       </c>
       <c r="E125" s="23"/>
-      <c r="F125" s="37"/>
+      <c r="F125" s="43"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
@@ -3385,7 +3286,7 @@
         <v>64</v>
       </c>
       <c r="E126" s="23"/>
-      <c r="F126" s="37"/>
+      <c r="F126" s="43"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
@@ -3397,7 +3298,7 @@
         <v>66</v>
       </c>
       <c r="E127" s="23"/>
-      <c r="F127" s="37"/>
+      <c r="F127" s="43"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
@@ -3411,7 +3312,7 @@
       <c r="E128" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="37"/>
+      <c r="F128" s="43"/>
     </row>
     <row r="129" spans="1:6" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
@@ -3425,7 +3326,7 @@
       <c r="E129" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="37"/>
+      <c r="F129" s="43"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
@@ -3439,7 +3340,7 @@
       <c r="E130" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="37"/>
+      <c r="F130" s="43"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
@@ -3451,7 +3352,7 @@
         <v>74</v>
       </c>
       <c r="E131" s="23"/>
-      <c r="F131" s="37"/>
+      <c r="F131" s="43"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
@@ -3463,7 +3364,7 @@
         <v>76</v>
       </c>
       <c r="E132" s="23"/>
-      <c r="F132" s="37"/>
+      <c r="F132" s="43"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
@@ -3475,7 +3376,7 @@
         <v>78</v>
       </c>
       <c r="E133" s="29"/>
-      <c r="F133" s="38"/>
+      <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
@@ -3491,7 +3392,7 @@
         <v>55</v>
       </c>
       <c r="E134" s="18"/>
-      <c r="F134" s="39" t="s">
+      <c r="F134" s="45" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3505,7 +3406,7 @@
         <v>58</v>
       </c>
       <c r="E135" s="23"/>
-      <c r="F135" s="37"/>
+      <c r="F135" s="43"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
@@ -3517,7 +3418,7 @@
         <v>60</v>
       </c>
       <c r="E136" s="23"/>
-      <c r="F136" s="37"/>
+      <c r="F136" s="43"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
@@ -3529,7 +3430,7 @@
         <v>62</v>
       </c>
       <c r="E137" s="23"/>
-      <c r="F137" s="37"/>
+      <c r="F137" s="43"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
@@ -3541,7 +3442,7 @@
         <v>64</v>
       </c>
       <c r="E138" s="23"/>
-      <c r="F138" s="37"/>
+      <c r="F138" s="43"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
@@ -3553,7 +3454,7 @@
         <v>66</v>
       </c>
       <c r="E139" s="23"/>
-      <c r="F139" s="37"/>
+      <c r="F139" s="43"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
@@ -3567,7 +3468,7 @@
       <c r="E140" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="37"/>
+      <c r="F140" s="43"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
@@ -3581,7 +3482,7 @@
       <c r="E141" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="37"/>
+      <c r="F141" s="43"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
@@ -3595,7 +3496,7 @@
       <c r="E142" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="37"/>
+      <c r="F142" s="43"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
@@ -3607,7 +3508,7 @@
         <v>74</v>
       </c>
       <c r="E143" s="23"/>
-      <c r="F143" s="37"/>
+      <c r="F143" s="43"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
@@ -3619,7 +3520,7 @@
         <v>76</v>
       </c>
       <c r="E144" s="23"/>
-      <c r="F144" s="37"/>
+      <c r="F144" s="43"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
@@ -3631,7 +3532,7 @@
         <v>78</v>
       </c>
       <c r="E145" s="29"/>
-      <c r="F145" s="38"/>
+      <c r="F145" s="44"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
@@ -3647,7 +3548,7 @@
         <v>55</v>
       </c>
       <c r="E146" s="18"/>
-      <c r="F146" s="39" t="s">
+      <c r="F146" s="45" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3661,7 +3562,7 @@
         <v>58</v>
       </c>
       <c r="E147" s="23"/>
-      <c r="F147" s="37"/>
+      <c r="F147" s="43"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
@@ -3673,7 +3574,7 @@
         <v>60</v>
       </c>
       <c r="E148" s="23"/>
-      <c r="F148" s="37"/>
+      <c r="F148" s="43"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
@@ -3685,7 +3586,7 @@
         <v>62</v>
       </c>
       <c r="E149" s="23"/>
-      <c r="F149" s="37"/>
+      <c r="F149" s="43"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
@@ -3697,7 +3598,7 @@
         <v>64</v>
       </c>
       <c r="E150" s="23"/>
-      <c r="F150" s="37"/>
+      <c r="F150" s="43"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
@@ -3709,7 +3610,7 @@
         <v>66</v>
       </c>
       <c r="E151" s="23"/>
-      <c r="F151" s="37"/>
+      <c r="F151" s="43"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
@@ -3723,7 +3624,7 @@
       <c r="E152" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F152" s="37"/>
+      <c r="F152" s="43"/>
     </row>
     <row r="153" spans="1:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
@@ -3737,7 +3638,7 @@
       <c r="E153" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F153" s="37"/>
+      <c r="F153" s="43"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
@@ -3751,7 +3652,7 @@
       <c r="E154" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="37"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
@@ -3763,7 +3664,7 @@
         <v>74</v>
       </c>
       <c r="E155" s="23"/>
-      <c r="F155" s="37"/>
+      <c r="F155" s="43"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
@@ -3775,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="E156" s="23"/>
-      <c r="F156" s="37"/>
+      <c r="F156" s="43"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
@@ -3787,7 +3688,7 @@
         <v>78</v>
       </c>
       <c r="E157" s="29"/>
-      <c r="F157" s="38"/>
+      <c r="F157" s="44"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
@@ -3803,7 +3704,7 @@
         <v>55</v>
       </c>
       <c r="E158" s="18"/>
-      <c r="F158" s="39" t="s">
+      <c r="F158" s="45" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3817,7 +3718,7 @@
         <v>58</v>
       </c>
       <c r="E159" s="23"/>
-      <c r="F159" s="37"/>
+      <c r="F159" s="43"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
@@ -3829,7 +3730,7 @@
         <v>60</v>
       </c>
       <c r="E160" s="23"/>
-      <c r="F160" s="37"/>
+      <c r="F160" s="43"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
@@ -3841,7 +3742,7 @@
         <v>62</v>
       </c>
       <c r="E161" s="23"/>
-      <c r="F161" s="37"/>
+      <c r="F161" s="43"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
@@ -3853,7 +3754,7 @@
         <v>64</v>
       </c>
       <c r="E162" s="23"/>
-      <c r="F162" s="37"/>
+      <c r="F162" s="43"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
@@ -3865,7 +3766,7 @@
         <v>66</v>
       </c>
       <c r="E163" s="23"/>
-      <c r="F163" s="37"/>
+      <c r="F163" s="43"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
@@ -3879,7 +3780,7 @@
       <c r="E164" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="37"/>
+      <c r="F164" s="43"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
@@ -3891,7 +3792,7 @@
         <v>70</v>
       </c>
       <c r="E165" s="32"/>
-      <c r="F165" s="37"/>
+      <c r="F165" s="43"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
@@ -3905,7 +3806,7 @@
       <c r="E166" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="37"/>
+      <c r="F166" s="43"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
@@ -3917,7 +3818,7 @@
         <v>74</v>
       </c>
       <c r="E167" s="23"/>
-      <c r="F167" s="37"/>
+      <c r="F167" s="43"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
@@ -3929,7 +3830,7 @@
         <v>76</v>
       </c>
       <c r="E168" s="23"/>
-      <c r="F168" s="37"/>
+      <c r="F168" s="43"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
@@ -3941,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="E169" s="29"/>
-      <c r="F169" s="38"/>
+      <c r="F169" s="44"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
@@ -3957,7 +3858,7 @@
         <v>55</v>
       </c>
       <c r="E170" s="18"/>
-      <c r="F170" s="36" t="s">
+      <c r="F170" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3971,7 +3872,7 @@
         <v>58</v>
       </c>
       <c r="E171" s="23"/>
-      <c r="F171" s="37"/>
+      <c r="F171" s="43"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
@@ -3983,7 +3884,7 @@
         <v>60</v>
       </c>
       <c r="E172" s="23"/>
-      <c r="F172" s="37"/>
+      <c r="F172" s="43"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
@@ -3995,7 +3896,7 @@
         <v>62</v>
       </c>
       <c r="E173" s="23"/>
-      <c r="F173" s="37"/>
+      <c r="F173" s="43"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
@@ -4007,7 +3908,7 @@
         <v>64</v>
       </c>
       <c r="E174" s="23"/>
-      <c r="F174" s="37"/>
+      <c r="F174" s="43"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
@@ -4019,7 +3920,7 @@
         <v>66</v>
       </c>
       <c r="E175" s="23"/>
-      <c r="F175" s="37"/>
+      <c r="F175" s="43"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
@@ -4033,7 +3934,7 @@
       <c r="E176" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="37"/>
+      <c r="F176" s="43"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
@@ -4047,7 +3948,7 @@
       <c r="E177" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F177" s="37"/>
+      <c r="F177" s="43"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
@@ -4061,7 +3962,7 @@
       <c r="E178" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F178" s="37"/>
+      <c r="F178" s="43"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
@@ -4073,7 +3974,7 @@
         <v>74</v>
       </c>
       <c r="E179" s="23"/>
-      <c r="F179" s="37"/>
+      <c r="F179" s="43"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
@@ -4085,7 +3986,7 @@
         <v>76</v>
       </c>
       <c r="E180" s="23"/>
-      <c r="F180" s="37"/>
+      <c r="F180" s="43"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
@@ -4097,7 +3998,7 @@
         <v>78</v>
       </c>
       <c r="E181" s="29"/>
-      <c r="F181" s="38"/>
+      <c r="F181" s="44"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
@@ -4113,7 +4014,7 @@
         <v>55</v>
       </c>
       <c r="E182" s="18"/>
-      <c r="F182" s="36" t="s">
+      <c r="F182" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4127,7 +4028,7 @@
         <v>58</v>
       </c>
       <c r="E183" s="23"/>
-      <c r="F183" s="37"/>
+      <c r="F183" s="43"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
@@ -4139,7 +4040,7 @@
         <v>60</v>
       </c>
       <c r="E184" s="23"/>
-      <c r="F184" s="37"/>
+      <c r="F184" s="43"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
@@ -4151,7 +4052,7 @@
         <v>62</v>
       </c>
       <c r="E185" s="23"/>
-      <c r="F185" s="37"/>
+      <c r="F185" s="43"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
@@ -4163,7 +4064,7 @@
         <v>64</v>
       </c>
       <c r="E186" s="23"/>
-      <c r="F186" s="37"/>
+      <c r="F186" s="43"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
@@ -4175,7 +4076,7 @@
         <v>66</v>
       </c>
       <c r="E187" s="23"/>
-      <c r="F187" s="37"/>
+      <c r="F187" s="43"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
@@ -4189,7 +4090,7 @@
       <c r="E188" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F188" s="37"/>
+      <c r="F188" s="43"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
@@ -4203,7 +4104,7 @@
       <c r="E189" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F189" s="37"/>
+      <c r="F189" s="43"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
@@ -4217,7 +4118,7 @@
       <c r="E190" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="37"/>
+      <c r="F190" s="43"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
@@ -4229,7 +4130,7 @@
         <v>74</v>
       </c>
       <c r="E191" s="23"/>
-      <c r="F191" s="37"/>
+      <c r="F191" s="43"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="19"/>
@@ -4241,7 +4142,7 @@
         <v>76</v>
       </c>
       <c r="E192" s="23"/>
-      <c r="F192" s="37"/>
+      <c r="F192" s="43"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
@@ -4253,7 +4154,7 @@
         <v>78</v>
       </c>
       <c r="E193" s="29"/>
-      <c r="F193" s="38"/>
+      <c r="F193" s="44"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
@@ -4269,7 +4170,7 @@
         <v>55</v>
       </c>
       <c r="E194" s="18"/>
-      <c r="F194" s="39" t="s">
+      <c r="F194" s="45" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4283,7 +4184,7 @@
         <v>58</v>
       </c>
       <c r="E195" s="23"/>
-      <c r="F195" s="37"/>
+      <c r="F195" s="43"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
@@ -4295,7 +4196,7 @@
         <v>60</v>
       </c>
       <c r="E196" s="23"/>
-      <c r="F196" s="37"/>
+      <c r="F196" s="43"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
@@ -4307,7 +4208,7 @@
         <v>62</v>
       </c>
       <c r="E197" s="23"/>
-      <c r="F197" s="37"/>
+      <c r="F197" s="43"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
@@ -4319,7 +4220,7 @@
         <v>64</v>
       </c>
       <c r="E198" s="23"/>
-      <c r="F198" s="37"/>
+      <c r="F198" s="43"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="19"/>
@@ -4331,7 +4232,7 @@
         <v>66</v>
       </c>
       <c r="E199" s="23"/>
-      <c r="F199" s="37"/>
+      <c r="F199" s="43"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="19"/>
@@ -4345,7 +4246,7 @@
       <c r="E200" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F200" s="37"/>
+      <c r="F200" s="43"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="19"/>
@@ -4359,7 +4260,7 @@
       <c r="E201" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F201" s="37"/>
+      <c r="F201" s="43"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="19"/>
@@ -4373,7 +4274,7 @@
       <c r="E202" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F202" s="37"/>
+      <c r="F202" s="43"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="19"/>
@@ -4385,7 +4286,7 @@
         <v>74</v>
       </c>
       <c r="E203" s="23"/>
-      <c r="F203" s="37"/>
+      <c r="F203" s="43"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="19"/>
@@ -4397,7 +4298,7 @@
         <v>76</v>
       </c>
       <c r="E204" s="23"/>
-      <c r="F204" s="37"/>
+      <c r="F204" s="43"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
@@ -4409,7 +4310,7 @@
         <v>78</v>
       </c>
       <c r="E205" s="29"/>
-      <c r="F205" s="38"/>
+      <c r="F205" s="44"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
@@ -4425,7 +4326,7 @@
         <v>55</v>
       </c>
       <c r="E206" s="18"/>
-      <c r="F206" s="39" t="s">
+      <c r="F206" s="45" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4439,7 +4340,7 @@
         <v>58</v>
       </c>
       <c r="E207" s="23"/>
-      <c r="F207" s="37"/>
+      <c r="F207" s="43"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="19"/>
@@ -4451,7 +4352,7 @@
         <v>60</v>
       </c>
       <c r="E208" s="23"/>
-      <c r="F208" s="37"/>
+      <c r="F208" s="43"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="19"/>
@@ -4463,7 +4364,7 @@
         <v>62</v>
       </c>
       <c r="E209" s="23"/>
-      <c r="F209" s="37"/>
+      <c r="F209" s="43"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="19"/>
@@ -4475,7 +4376,7 @@
         <v>64</v>
       </c>
       <c r="E210" s="23"/>
-      <c r="F210" s="37"/>
+      <c r="F210" s="43"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="19"/>
@@ -4487,7 +4388,7 @@
         <v>66</v>
       </c>
       <c r="E211" s="23"/>
-      <c r="F211" s="37"/>
+      <c r="F211" s="43"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="19"/>
@@ -4501,7 +4402,7 @@
       <c r="E212" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F212" s="37"/>
+      <c r="F212" s="43"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="19"/>
@@ -4515,7 +4416,7 @@
       <c r="E213" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F213" s="37"/>
+      <c r="F213" s="43"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="19"/>
@@ -4529,7 +4430,7 @@
       <c r="E214" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F214" s="37"/>
+      <c r="F214" s="43"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="19"/>
@@ -4541,7 +4442,7 @@
         <v>74</v>
       </c>
       <c r="E215" s="23"/>
-      <c r="F215" s="37"/>
+      <c r="F215" s="43"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="19"/>
@@ -4553,7 +4454,7 @@
         <v>76</v>
       </c>
       <c r="E216" s="23"/>
-      <c r="F216" s="37"/>
+      <c r="F216" s="43"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
@@ -4565,7 +4466,7 @@
         <v>78</v>
       </c>
       <c r="E217" s="29"/>
-      <c r="F217" s="38"/>
+      <c r="F217" s="44"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
@@ -4581,7 +4482,7 @@
         <v>55</v>
       </c>
       <c r="E218" s="18"/>
-      <c r="F218" s="36" t="s">
+      <c r="F218" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4595,7 +4496,7 @@
         <v>58</v>
       </c>
       <c r="E219" s="23"/>
-      <c r="F219" s="37"/>
+      <c r="F219" s="43"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="19"/>
@@ -4607,7 +4508,7 @@
         <v>60</v>
       </c>
       <c r="E220" s="23"/>
-      <c r="F220" s="37"/>
+      <c r="F220" s="43"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
@@ -4619,7 +4520,7 @@
         <v>62</v>
       </c>
       <c r="E221" s="23"/>
-      <c r="F221" s="37"/>
+      <c r="F221" s="43"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="19"/>
@@ -4631,7 +4532,7 @@
         <v>64</v>
       </c>
       <c r="E222" s="23"/>
-      <c r="F222" s="37"/>
+      <c r="F222" s="43"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
@@ -4643,7 +4544,7 @@
         <v>66</v>
       </c>
       <c r="E223" s="23"/>
-      <c r="F223" s="37"/>
+      <c r="F223" s="43"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
@@ -4657,7 +4558,7 @@
       <c r="E224" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F224" s="37"/>
+      <c r="F224" s="43"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
@@ -4671,7 +4572,7 @@
       <c r="E225" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F225" s="37"/>
+      <c r="F225" s="43"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="19"/>
@@ -4685,7 +4586,7 @@
       <c r="E226" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F226" s="37"/>
+      <c r="F226" s="43"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
@@ -4697,7 +4598,7 @@
         <v>74</v>
       </c>
       <c r="E227" s="23"/>
-      <c r="F227" s="37"/>
+      <c r="F227" s="43"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
@@ -4709,7 +4610,7 @@
         <v>76</v>
       </c>
       <c r="E228" s="23"/>
-      <c r="F228" s="37"/>
+      <c r="F228" s="43"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
@@ -4721,7 +4622,7 @@
         <v>78</v>
       </c>
       <c r="E229" s="29"/>
-      <c r="F229" s="38"/>
+      <c r="F229" s="44"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
@@ -4737,7 +4638,7 @@
         <v>55</v>
       </c>
       <c r="E230" s="18"/>
-      <c r="F230" s="36" t="s">
+      <c r="F230" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4751,7 +4652,7 @@
         <v>58</v>
       </c>
       <c r="E231" s="23"/>
-      <c r="F231" s="37"/>
+      <c r="F231" s="43"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="19"/>
@@ -4763,7 +4664,7 @@
         <v>60</v>
       </c>
       <c r="E232" s="23"/>
-      <c r="F232" s="37"/>
+      <c r="F232" s="43"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="19"/>
@@ -4775,7 +4676,7 @@
         <v>62</v>
       </c>
       <c r="E233" s="23"/>
-      <c r="F233" s="37"/>
+      <c r="F233" s="43"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="19"/>
@@ -4787,7 +4688,7 @@
         <v>64</v>
       </c>
       <c r="E234" s="23"/>
-      <c r="F234" s="37"/>
+      <c r="F234" s="43"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="19"/>
@@ -4799,7 +4700,7 @@
         <v>66</v>
       </c>
       <c r="E235" s="23"/>
-      <c r="F235" s="37"/>
+      <c r="F235" s="43"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="19"/>
@@ -4813,7 +4714,7 @@
       <c r="E236" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="37"/>
+      <c r="F236" s="43"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="19"/>
@@ -4827,7 +4728,7 @@
       <c r="E237" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F237" s="37"/>
+      <c r="F237" s="43"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="19"/>
@@ -4841,7 +4742,7 @@
       <c r="E238" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F238" s="37"/>
+      <c r="F238" s="43"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="19"/>
@@ -4853,7 +4754,7 @@
         <v>74</v>
       </c>
       <c r="E239" s="23"/>
-      <c r="F239" s="37"/>
+      <c r="F239" s="43"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="19"/>
@@ -4865,7 +4766,7 @@
         <v>76</v>
       </c>
       <c r="E240" s="23"/>
-      <c r="F240" s="37"/>
+      <c r="F240" s="43"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
@@ -4877,7 +4778,7 @@
         <v>78</v>
       </c>
       <c r="E241" s="29"/>
-      <c r="F241" s="38"/>
+      <c r="F241" s="44"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -4893,7 +4794,7 @@
         <v>55</v>
       </c>
       <c r="E242" s="18"/>
-      <c r="F242" s="36" t="s">
+      <c r="F242" s="42" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4907,7 +4808,7 @@
         <v>58</v>
       </c>
       <c r="E243" s="23"/>
-      <c r="F243" s="37"/>
+      <c r="F243" s="43"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="19"/>
@@ -4919,7 +4820,7 @@
         <v>60</v>
       </c>
       <c r="E244" s="23"/>
-      <c r="F244" s="37"/>
+      <c r="F244" s="43"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="19"/>
@@ -4931,7 +4832,7 @@
         <v>62</v>
       </c>
       <c r="E245" s="23"/>
-      <c r="F245" s="37"/>
+      <c r="F245" s="43"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="19"/>
@@ -4943,7 +4844,7 @@
         <v>64</v>
       </c>
       <c r="E246" s="23"/>
-      <c r="F246" s="37"/>
+      <c r="F246" s="43"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="19"/>
@@ -4955,7 +4856,7 @@
         <v>66</v>
       </c>
       <c r="E247" s="23"/>
-      <c r="F247" s="37"/>
+      <c r="F247" s="43"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="19"/>
@@ -4969,7 +4870,7 @@
       <c r="E248" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F248" s="37"/>
+      <c r="F248" s="43"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="19"/>
@@ -4983,7 +4884,7 @@
       <c r="E249" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F249" s="37"/>
+      <c r="F249" s="43"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="19"/>
@@ -4997,7 +4898,7 @@
       <c r="E250" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F250" s="37"/>
+      <c r="F250" s="43"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
@@ -5009,7 +4910,7 @@
         <v>74</v>
       </c>
       <c r="E251" s="23"/>
-      <c r="F251" s="37"/>
+      <c r="F251" s="43"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="19"/>
@@ -5021,7 +4922,7 @@
         <v>76</v>
       </c>
       <c r="E252" s="23"/>
-      <c r="F252" s="37"/>
+      <c r="F252" s="43"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
@@ -5033,7 +4934,7 @@
         <v>78</v>
       </c>
       <c r="E253" s="29"/>
-      <c r="F253" s="38"/>
+      <c r="F253" s="44"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
@@ -5049,7 +4950,7 @@
         <v>55</v>
       </c>
       <c r="E254" s="18"/>
-      <c r="F254" s="39" t="s">
+      <c r="F254" s="45" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5063,7 +4964,7 @@
         <v>58</v>
       </c>
       <c r="E255" s="23"/>
-      <c r="F255" s="37"/>
+      <c r="F255" s="43"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="19"/>
@@ -5075,7 +4976,7 @@
         <v>60</v>
       </c>
       <c r="E256" s="23"/>
-      <c r="F256" s="37"/>
+      <c r="F256" s="43"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="19"/>
@@ -5087,7 +4988,7 @@
         <v>62</v>
       </c>
       <c r="E257" s="23"/>
-      <c r="F257" s="37"/>
+      <c r="F257" s="43"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="19"/>
@@ -5099,7 +5000,7 @@
         <v>64</v>
       </c>
       <c r="E258" s="23"/>
-      <c r="F258" s="37"/>
+      <c r="F258" s="43"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
@@ -5111,7 +5012,7 @@
         <v>66</v>
       </c>
       <c r="E259" s="23"/>
-      <c r="F259" s="37"/>
+      <c r="F259" s="43"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="19"/>
@@ -5125,7 +5026,7 @@
       <c r="E260" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F260" s="37"/>
+      <c r="F260" s="43"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="19"/>
@@ -5139,7 +5040,7 @@
       <c r="E261" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F261" s="37"/>
+      <c r="F261" s="43"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="19"/>
@@ -5151,7 +5052,7 @@
         <v>72</v>
       </c>
       <c r="E262" s="35"/>
-      <c r="F262" s="37"/>
+      <c r="F262" s="43"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="19"/>
@@ -5163,7 +5064,7 @@
         <v>74</v>
       </c>
       <c r="E263" s="23"/>
-      <c r="F263" s="37"/>
+      <c r="F263" s="43"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="19"/>
@@ -5175,7 +5076,7 @@
         <v>76</v>
       </c>
       <c r="E264" s="23"/>
-      <c r="F264" s="37"/>
+      <c r="F264" s="43"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
@@ -5187,10 +5088,25 @@
         <v>78</v>
       </c>
       <c r="E265" s="29"/>
-      <c r="F265" s="38"/>
+      <c r="F265" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="F14:F25"/>
+    <mergeCell ref="F26:F37"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="F50:F61"/>
+    <mergeCell ref="F62:F73"/>
+    <mergeCell ref="F74:F85"/>
+    <mergeCell ref="F86:F97"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="F110:F121"/>
+    <mergeCell ref="F122:F133"/>
+    <mergeCell ref="F134:F145"/>
+    <mergeCell ref="F146:F157"/>
+    <mergeCell ref="F158:F169"/>
+    <mergeCell ref="F170:F181"/>
     <mergeCell ref="F242:F253"/>
     <mergeCell ref="F254:F265"/>
     <mergeCell ref="F182:F193"/>
@@ -5198,21 +5114,6 @@
     <mergeCell ref="F206:F217"/>
     <mergeCell ref="F218:F229"/>
     <mergeCell ref="F230:F241"/>
-    <mergeCell ref="F122:F133"/>
-    <mergeCell ref="F134:F145"/>
-    <mergeCell ref="F146:F157"/>
-    <mergeCell ref="F158:F169"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="F62:F73"/>
-    <mergeCell ref="F74:F85"/>
-    <mergeCell ref="F86:F97"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="F110:F121"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="F14:F25"/>
-    <mergeCell ref="F26:F37"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="F50:F61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/12_Data_Edit_Activity_News.xlsx
+++ b/tests/12_Data_Edit_Activity_News.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413B6A6-8599-4878-8304-8B84C7AF3B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB37B387-5C87-4EB6-9666-C0D74EA1CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="101">
   <si>
     <t>TCID</t>
   </si>
@@ -317,6 +317,21 @@
   </si>
   <si>
     <t>Revise Manual Testing</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ชื่อหัวข้อข่าวสารและกิจกรรมต้องมีความยาวระหว่าง 2 ถึง 255 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกไฟล์รูปภาพ</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -575,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,9 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="G2:J20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1034,7 @@
     <col min="4" max="4" width="58.3984375" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="6" max="6" width="32.5" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="7" max="7" width="53.59765625" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,10 +1089,18 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1101,10 +1121,18 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1125,10 +1153,18 @@
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1149,10 +1185,18 @@
       <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1173,10 +1217,18 @@
       <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1197,10 +1249,18 @@
       <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="3"/>
+      <c r="G7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1221,10 +1281,18 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1245,10 +1313,18 @@
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1269,10 +1345,18 @@
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1293,10 +1377,18 @@
       <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1317,10 +1409,18 @@
       <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1341,10 +1441,18 @@
       <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1365,10 +1473,18 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1389,10 +1505,18 @@
       <c r="F15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1413,10 +1537,18 @@
       <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="3"/>
+      <c r="G16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1437,10 +1569,18 @@
       <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="3"/>
+      <c r="G17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1461,10 +1601,18 @@
       <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1485,10 +1633,18 @@
       <c r="F19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="3"/>
+      <c r="G19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1509,104 +1665,112 @@
       <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="3"/>
+      <c r="G20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="39" t="s">
+      <c r="I23" s="40"/>
+      <c r="J23" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <f>COUNTIF(H2:H20,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="40" t="e">
+        <v>9</v>
+      </c>
+      <c r="J24" s="39">
         <f>I24*100/I26</f>
-        <v>#DIV/0!</v>
+        <v>47.368421052631582</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <f>COUNTIF(H2:H20,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="40" t="e">
+        <v>10</v>
+      </c>
+      <c r="J25" s="39">
         <f>I25*100/I26</f>
-        <v>#DIV/0!</v>
+        <v>52.631578947368418</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <f>SUM(I24:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="40">
+        <v>19</v>
+      </c>
+      <c r="J26" s="39">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="39" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="38" t="s">
+      <c r="H29" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <f>COUNTIF(J2:J20,"Pass")</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="40" t="e">
+        <v>14</v>
+      </c>
+      <c r="J29" s="39">
         <f>I29*100/I31</f>
-        <v>#DIV/0!</v>
+        <v>73.684210526315795</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <f>COUNTIF(J2:J20,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="40" t="e">
+        <v>5</v>
+      </c>
+      <c r="J30" s="39">
         <f>I30*100/I31</f>
-        <v>#DIV/0!</v>
+        <v>26.315789473684209</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <f>SUM(I29:I30)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="40">
+        <v>19</v>
+      </c>
+      <c r="J31" s="39">
         <v>100</v>
       </c>
     </row>
@@ -1678,7 +1842,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1692,7 +1856,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="23"/>
-      <c r="F3" s="43"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -1704,7 +1868,7 @@
         <v>60</v>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="43"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
@@ -1716,7 +1880,7 @@
         <v>62</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
@@ -1728,7 +1892,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="43"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -1740,7 +1904,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="43"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
@@ -1754,7 +1918,7 @@
       <c r="E8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1768,7 +1932,7 @@
       <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -1782,7 +1946,7 @@
       <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
@@ -1794,7 +1958,7 @@
         <v>74</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="43"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
@@ -1806,7 +1970,7 @@
         <v>76</v>
       </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
@@ -1818,7 +1982,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -1834,7 +1998,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1848,7 +2012,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="43"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
@@ -1860,7 +2024,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -1872,7 +2036,7 @@
         <v>62</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -1884,7 +2048,7 @@
         <v>64</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
@@ -1896,7 +2060,7 @@
         <v>66</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -1910,7 +2074,7 @@
       <c r="E20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -1924,7 +2088,7 @@
       <c r="E21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
@@ -1938,7 +2102,7 @@
       <c r="E22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
@@ -1950,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="43"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
@@ -1962,7 +2126,7 @@
         <v>76</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="43"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
@@ -1974,7 +2138,7 @@
         <v>78</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -1990,7 +2154,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="18"/>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2004,7 +2168,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="23"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -2016,7 +2180,7 @@
         <v>60</v>
       </c>
       <c r="E28" s="23"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -2028,7 +2192,7 @@
         <v>62</v>
       </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="43"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -2040,7 +2204,7 @@
         <v>64</v>
       </c>
       <c r="E30" s="23"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
@@ -2052,7 +2216,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="23"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -2066,7 +2230,7 @@
       <c r="E32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
@@ -2080,7 +2244,7 @@
       <c r="E33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -2094,7 +2258,7 @@
       <c r="E34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
@@ -2106,7 +2270,7 @@
         <v>74</v>
       </c>
       <c r="E35" s="23"/>
-      <c r="F35" s="43"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
@@ -2118,7 +2282,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="23"/>
-      <c r="F36" s="43"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
@@ -2130,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="E37" s="29"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -2146,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2160,7 +2324,7 @@
         <v>58</v>
       </c>
       <c r="E39" s="23"/>
-      <c r="F39" s="43"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
@@ -2172,7 +2336,7 @@
         <v>60</v>
       </c>
       <c r="E40" s="23"/>
-      <c r="F40" s="43"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
@@ -2184,7 +2348,7 @@
         <v>62</v>
       </c>
       <c r="E41" s="23"/>
-      <c r="F41" s="43"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
@@ -2196,7 +2360,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="23"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
@@ -2208,7 +2372,7 @@
         <v>66</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
@@ -2222,7 +2386,7 @@
       <c r="E44" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="43"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
@@ -2236,7 +2400,7 @@
       <c r="E45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="43"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
@@ -2250,7 +2414,7 @@
       <c r="E46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="43"/>
+      <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
@@ -2262,7 +2426,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="43"/>
+      <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
@@ -2274,7 +2438,7 @@
         <v>76</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="F48" s="43"/>
+      <c r="F48" s="42"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
@@ -2286,7 +2450,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="29"/>
-      <c r="F49" s="44"/>
+      <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -2302,7 +2466,7 @@
         <v>55</v>
       </c>
       <c r="E50" s="18"/>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="44" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2316,7 +2480,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="23"/>
-      <c r="F51" s="43"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
@@ -2328,7 +2492,7 @@
         <v>60</v>
       </c>
       <c r="E52" s="23"/>
-      <c r="F52" s="43"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
@@ -2340,7 +2504,7 @@
         <v>62</v>
       </c>
       <c r="E53" s="23"/>
-      <c r="F53" s="43"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
@@ -2352,7 +2516,7 @@
         <v>64</v>
       </c>
       <c r="E54" s="23"/>
-      <c r="F54" s="43"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
@@ -2364,7 +2528,7 @@
         <v>66</v>
       </c>
       <c r="E55" s="23"/>
-      <c r="F55" s="43"/>
+      <c r="F55" s="42"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
@@ -2378,7 +2542,7 @@
       <c r="E56" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="43"/>
+      <c r="F56" s="42"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
@@ -2392,7 +2556,7 @@
       <c r="E57" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="43"/>
+      <c r="F57" s="42"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
@@ -2406,7 +2570,7 @@
       <c r="E58" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" s="42"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
@@ -2418,7 +2582,7 @@
         <v>74</v>
       </c>
       <c r="E59" s="23"/>
-      <c r="F59" s="43"/>
+      <c r="F59" s="42"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
@@ -2430,7 +2594,7 @@
         <v>76</v>
       </c>
       <c r="E60" s="23"/>
-      <c r="F60" s="43"/>
+      <c r="F60" s="42"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
@@ -2442,7 +2606,7 @@
         <v>78</v>
       </c>
       <c r="E61" s="29"/>
-      <c r="F61" s="44"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
@@ -2458,7 +2622,7 @@
         <v>55</v>
       </c>
       <c r="E62" s="18"/>
-      <c r="F62" s="45" t="s">
+      <c r="F62" s="44" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2472,7 +2636,7 @@
         <v>58</v>
       </c>
       <c r="E63" s="23"/>
-      <c r="F63" s="43"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
@@ -2484,7 +2648,7 @@
         <v>60</v>
       </c>
       <c r="E64" s="23"/>
-      <c r="F64" s="43"/>
+      <c r="F64" s="42"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
@@ -2496,7 +2660,7 @@
         <v>62</v>
       </c>
       <c r="E65" s="23"/>
-      <c r="F65" s="43"/>
+      <c r="F65" s="42"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
@@ -2508,7 +2672,7 @@
         <v>64</v>
       </c>
       <c r="E66" s="23"/>
-      <c r="F66" s="43"/>
+      <c r="F66" s="42"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
@@ -2520,7 +2684,7 @@
         <v>66</v>
       </c>
       <c r="E67" s="23"/>
-      <c r="F67" s="43"/>
+      <c r="F67" s="42"/>
     </row>
     <row r="68" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
@@ -2534,7 +2698,7 @@
       <c r="E68" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="43"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
@@ -2548,7 +2712,7 @@
       <c r="E69" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="43"/>
+      <c r="F69" s="42"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
@@ -2562,7 +2726,7 @@
       <c r="E70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="43"/>
+      <c r="F70" s="42"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
@@ -2574,7 +2738,7 @@
         <v>74</v>
       </c>
       <c r="E71" s="23"/>
-      <c r="F71" s="43"/>
+      <c r="F71" s="42"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
@@ -2586,7 +2750,7 @@
         <v>76</v>
       </c>
       <c r="E72" s="23"/>
-      <c r="F72" s="43"/>
+      <c r="F72" s="42"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
@@ -2598,7 +2762,7 @@
         <v>78</v>
       </c>
       <c r="E73" s="29"/>
-      <c r="F73" s="44"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -2614,7 +2778,7 @@
         <v>55</v>
       </c>
       <c r="E74" s="18"/>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="44" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2628,7 +2792,7 @@
         <v>58</v>
       </c>
       <c r="E75" s="23"/>
-      <c r="F75" s="43"/>
+      <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
@@ -2640,7 +2804,7 @@
         <v>60</v>
       </c>
       <c r="E76" s="23"/>
-      <c r="F76" s="43"/>
+      <c r="F76" s="42"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
@@ -2652,7 +2816,7 @@
         <v>62</v>
       </c>
       <c r="E77" s="23"/>
-      <c r="F77" s="43"/>
+      <c r="F77" s="42"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
@@ -2664,7 +2828,7 @@
         <v>64</v>
       </c>
       <c r="E78" s="23"/>
-      <c r="F78" s="43"/>
+      <c r="F78" s="42"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
@@ -2676,7 +2840,7 @@
         <v>66</v>
       </c>
       <c r="E79" s="23"/>
-      <c r="F79" s="43"/>
+      <c r="F79" s="42"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
@@ -2688,7 +2852,7 @@
         <v>68</v>
       </c>
       <c r="E80" s="32"/>
-      <c r="F80" s="43"/>
+      <c r="F80" s="42"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
@@ -2702,7 +2866,7 @@
       <c r="E81" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="43"/>
+      <c r="F81" s="42"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
@@ -2716,7 +2880,7 @@
       <c r="E82" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="43"/>
+      <c r="F82" s="42"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
@@ -2728,7 +2892,7 @@
         <v>74</v>
       </c>
       <c r="E83" s="23"/>
-      <c r="F83" s="43"/>
+      <c r="F83" s="42"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
@@ -2740,7 +2904,7 @@
         <v>76</v>
       </c>
       <c r="E84" s="23"/>
-      <c r="F84" s="43"/>
+      <c r="F84" s="42"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
@@ -2752,7 +2916,7 @@
         <v>78</v>
       </c>
       <c r="E85" s="29"/>
-      <c r="F85" s="44"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
@@ -2768,7 +2932,7 @@
         <v>55</v>
       </c>
       <c r="E86" s="18"/>
-      <c r="F86" s="42" t="s">
+      <c r="F86" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2782,7 +2946,7 @@
         <v>58</v>
       </c>
       <c r="E87" s="23"/>
-      <c r="F87" s="43"/>
+      <c r="F87" s="42"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
@@ -2794,7 +2958,7 @@
         <v>60</v>
       </c>
       <c r="E88" s="23"/>
-      <c r="F88" s="43"/>
+      <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
@@ -2806,7 +2970,7 @@
         <v>62</v>
       </c>
       <c r="E89" s="23"/>
-      <c r="F89" s="43"/>
+      <c r="F89" s="42"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
@@ -2818,7 +2982,7 @@
         <v>64</v>
       </c>
       <c r="E90" s="23"/>
-      <c r="F90" s="43"/>
+      <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
@@ -2830,7 +2994,7 @@
         <v>66</v>
       </c>
       <c r="E91" s="23"/>
-      <c r="F91" s="43"/>
+      <c r="F91" s="42"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
@@ -2844,7 +3008,7 @@
       <c r="E92" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="43"/>
+      <c r="F92" s="42"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
@@ -2858,7 +3022,7 @@
       <c r="E93" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F93" s="43"/>
+      <c r="F93" s="42"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
@@ -2872,7 +3036,7 @@
       <c r="E94" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="43"/>
+      <c r="F94" s="42"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
@@ -2884,7 +3048,7 @@
         <v>74</v>
       </c>
       <c r="E95" s="23"/>
-      <c r="F95" s="43"/>
+      <c r="F95" s="42"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
@@ -2896,7 +3060,7 @@
         <v>76</v>
       </c>
       <c r="E96" s="23"/>
-      <c r="F96" s="43"/>
+      <c r="F96" s="42"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
@@ -2908,7 +3072,7 @@
         <v>78</v>
       </c>
       <c r="E97" s="29"/>
-      <c r="F97" s="44"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
@@ -2924,7 +3088,7 @@
         <v>55</v>
       </c>
       <c r="E98" s="18"/>
-      <c r="F98" s="42" t="s">
+      <c r="F98" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2938,7 +3102,7 @@
         <v>58</v>
       </c>
       <c r="E99" s="23"/>
-      <c r="F99" s="43"/>
+      <c r="F99" s="42"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
@@ -2950,7 +3114,7 @@
         <v>60</v>
       </c>
       <c r="E100" s="23"/>
-      <c r="F100" s="43"/>
+      <c r="F100" s="42"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
@@ -2962,7 +3126,7 @@
         <v>62</v>
       </c>
       <c r="E101" s="23"/>
-      <c r="F101" s="43"/>
+      <c r="F101" s="42"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
@@ -2974,7 +3138,7 @@
         <v>64</v>
       </c>
       <c r="E102" s="23"/>
-      <c r="F102" s="43"/>
+      <c r="F102" s="42"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
@@ -2986,7 +3150,7 @@
         <v>66</v>
       </c>
       <c r="E103" s="23"/>
-      <c r="F103" s="43"/>
+      <c r="F103" s="42"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
@@ -3000,7 +3164,7 @@
       <c r="E104" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="43"/>
+      <c r="F104" s="42"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
@@ -3014,7 +3178,7 @@
       <c r="E105" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F105" s="43"/>
+      <c r="F105" s="42"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
@@ -3028,7 +3192,7 @@
       <c r="E106" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F106" s="43"/>
+      <c r="F106" s="42"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
@@ -3040,7 +3204,7 @@
         <v>74</v>
       </c>
       <c r="E107" s="23"/>
-      <c r="F107" s="43"/>
+      <c r="F107" s="42"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
@@ -3052,7 +3216,7 @@
         <v>76</v>
       </c>
       <c r="E108" s="23"/>
-      <c r="F108" s="43"/>
+      <c r="F108" s="42"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="25"/>
@@ -3064,7 +3228,7 @@
         <v>78</v>
       </c>
       <c r="E109" s="29"/>
-      <c r="F109" s="44"/>
+      <c r="F109" s="43"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
@@ -3080,7 +3244,7 @@
         <v>55</v>
       </c>
       <c r="E110" s="18"/>
-      <c r="F110" s="42" t="s">
+      <c r="F110" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3094,7 +3258,7 @@
         <v>58</v>
       </c>
       <c r="E111" s="23"/>
-      <c r="F111" s="43"/>
+      <c r="F111" s="42"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
@@ -3106,7 +3270,7 @@
         <v>60</v>
       </c>
       <c r="E112" s="23"/>
-      <c r="F112" s="43"/>
+      <c r="F112" s="42"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
@@ -3118,7 +3282,7 @@
         <v>62</v>
       </c>
       <c r="E113" s="23"/>
-      <c r="F113" s="43"/>
+      <c r="F113" s="42"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
@@ -3130,7 +3294,7 @@
         <v>64</v>
       </c>
       <c r="E114" s="23"/>
-      <c r="F114" s="43"/>
+      <c r="F114" s="42"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
@@ -3142,7 +3306,7 @@
         <v>66</v>
       </c>
       <c r="E115" s="23"/>
-      <c r="F115" s="43"/>
+      <c r="F115" s="42"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
@@ -3156,7 +3320,7 @@
       <c r="E116" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F116" s="43"/>
+      <c r="F116" s="42"/>
     </row>
     <row r="117" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
@@ -3170,7 +3334,7 @@
       <c r="E117" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F117" s="43"/>
+      <c r="F117" s="42"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
@@ -3184,7 +3348,7 @@
       <c r="E118" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="43"/>
+      <c r="F118" s="42"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
@@ -3196,7 +3360,7 @@
         <v>74</v>
       </c>
       <c r="E119" s="23"/>
-      <c r="F119" s="43"/>
+      <c r="F119" s="42"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
@@ -3208,7 +3372,7 @@
         <v>76</v>
       </c>
       <c r="E120" s="23"/>
-      <c r="F120" s="43"/>
+      <c r="F120" s="42"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
@@ -3220,7 +3384,7 @@
         <v>78</v>
       </c>
       <c r="E121" s="29"/>
-      <c r="F121" s="44"/>
+      <c r="F121" s="43"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
@@ -3236,7 +3400,7 @@
         <v>55</v>
       </c>
       <c r="E122" s="18"/>
-      <c r="F122" s="42" t="s">
+      <c r="F122" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3250,7 +3414,7 @@
         <v>58</v>
       </c>
       <c r="E123" s="23"/>
-      <c r="F123" s="43"/>
+      <c r="F123" s="42"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
@@ -3262,7 +3426,7 @@
         <v>60</v>
       </c>
       <c r="E124" s="23"/>
-      <c r="F124" s="43"/>
+      <c r="F124" s="42"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
@@ -3274,7 +3438,7 @@
         <v>62</v>
       </c>
       <c r="E125" s="23"/>
-      <c r="F125" s="43"/>
+      <c r="F125" s="42"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
@@ -3286,7 +3450,7 @@
         <v>64</v>
       </c>
       <c r="E126" s="23"/>
-      <c r="F126" s="43"/>
+      <c r="F126" s="42"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
@@ -3298,7 +3462,7 @@
         <v>66</v>
       </c>
       <c r="E127" s="23"/>
-      <c r="F127" s="43"/>
+      <c r="F127" s="42"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
@@ -3312,7 +3476,7 @@
       <c r="E128" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="43"/>
+      <c r="F128" s="42"/>
     </row>
     <row r="129" spans="1:6" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
@@ -3326,7 +3490,7 @@
       <c r="E129" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="43"/>
+      <c r="F129" s="42"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
@@ -3340,7 +3504,7 @@
       <c r="E130" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F130" s="43"/>
+      <c r="F130" s="42"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
@@ -3352,7 +3516,7 @@
         <v>74</v>
       </c>
       <c r="E131" s="23"/>
-      <c r="F131" s="43"/>
+      <c r="F131" s="42"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
@@ -3364,7 +3528,7 @@
         <v>76</v>
       </c>
       <c r="E132" s="23"/>
-      <c r="F132" s="43"/>
+      <c r="F132" s="42"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
@@ -3376,7 +3540,7 @@
         <v>78</v>
       </c>
       <c r="E133" s="29"/>
-      <c r="F133" s="44"/>
+      <c r="F133" s="43"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
@@ -3392,7 +3556,7 @@
         <v>55</v>
       </c>
       <c r="E134" s="18"/>
-      <c r="F134" s="45" t="s">
+      <c r="F134" s="44" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3406,7 +3570,7 @@
         <v>58</v>
       </c>
       <c r="E135" s="23"/>
-      <c r="F135" s="43"/>
+      <c r="F135" s="42"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
@@ -3418,7 +3582,7 @@
         <v>60</v>
       </c>
       <c r="E136" s="23"/>
-      <c r="F136" s="43"/>
+      <c r="F136" s="42"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
@@ -3430,7 +3594,7 @@
         <v>62</v>
       </c>
       <c r="E137" s="23"/>
-      <c r="F137" s="43"/>
+      <c r="F137" s="42"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
@@ -3442,7 +3606,7 @@
         <v>64</v>
       </c>
       <c r="E138" s="23"/>
-      <c r="F138" s="43"/>
+      <c r="F138" s="42"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
@@ -3454,7 +3618,7 @@
         <v>66</v>
       </c>
       <c r="E139" s="23"/>
-      <c r="F139" s="43"/>
+      <c r="F139" s="42"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
@@ -3468,7 +3632,7 @@
       <c r="E140" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="43"/>
+      <c r="F140" s="42"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
@@ -3482,7 +3646,7 @@
       <c r="E141" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F141" s="43"/>
+      <c r="F141" s="42"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
@@ -3496,7 +3660,7 @@
       <c r="E142" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F142" s="43"/>
+      <c r="F142" s="42"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
@@ -3508,7 +3672,7 @@
         <v>74</v>
       </c>
       <c r="E143" s="23"/>
-      <c r="F143" s="43"/>
+      <c r="F143" s="42"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
@@ -3520,7 +3684,7 @@
         <v>76</v>
       </c>
       <c r="E144" s="23"/>
-      <c r="F144" s="43"/>
+      <c r="F144" s="42"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
@@ -3532,7 +3696,7 @@
         <v>78</v>
       </c>
       <c r="E145" s="29"/>
-      <c r="F145" s="44"/>
+      <c r="F145" s="43"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
@@ -3548,7 +3712,7 @@
         <v>55</v>
       </c>
       <c r="E146" s="18"/>
-      <c r="F146" s="45" t="s">
+      <c r="F146" s="44" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3562,7 +3726,7 @@
         <v>58</v>
       </c>
       <c r="E147" s="23"/>
-      <c r="F147" s="43"/>
+      <c r="F147" s="42"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
@@ -3574,7 +3738,7 @@
         <v>60</v>
       </c>
       <c r="E148" s="23"/>
-      <c r="F148" s="43"/>
+      <c r="F148" s="42"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
@@ -3586,7 +3750,7 @@
         <v>62</v>
       </c>
       <c r="E149" s="23"/>
-      <c r="F149" s="43"/>
+      <c r="F149" s="42"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
@@ -3598,7 +3762,7 @@
         <v>64</v>
       </c>
       <c r="E150" s="23"/>
-      <c r="F150" s="43"/>
+      <c r="F150" s="42"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
@@ -3610,7 +3774,7 @@
         <v>66</v>
       </c>
       <c r="E151" s="23"/>
-      <c r="F151" s="43"/>
+      <c r="F151" s="42"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
@@ -3624,7 +3788,7 @@
       <c r="E152" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F152" s="43"/>
+      <c r="F152" s="42"/>
     </row>
     <row r="153" spans="1:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
@@ -3638,7 +3802,7 @@
       <c r="E153" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F153" s="43"/>
+      <c r="F153" s="42"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
@@ -3652,7 +3816,7 @@
       <c r="E154" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F154" s="43"/>
+      <c r="F154" s="42"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
@@ -3664,7 +3828,7 @@
         <v>74</v>
       </c>
       <c r="E155" s="23"/>
-      <c r="F155" s="43"/>
+      <c r="F155" s="42"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
@@ -3676,7 +3840,7 @@
         <v>76</v>
       </c>
       <c r="E156" s="23"/>
-      <c r="F156" s="43"/>
+      <c r="F156" s="42"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
@@ -3688,7 +3852,7 @@
         <v>78</v>
       </c>
       <c r="E157" s="29"/>
-      <c r="F157" s="44"/>
+      <c r="F157" s="43"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
@@ -3704,7 +3868,7 @@
         <v>55</v>
       </c>
       <c r="E158" s="18"/>
-      <c r="F158" s="45" t="s">
+      <c r="F158" s="44" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3718,7 +3882,7 @@
         <v>58</v>
       </c>
       <c r="E159" s="23"/>
-      <c r="F159" s="43"/>
+      <c r="F159" s="42"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
@@ -3730,7 +3894,7 @@
         <v>60</v>
       </c>
       <c r="E160" s="23"/>
-      <c r="F160" s="43"/>
+      <c r="F160" s="42"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
@@ -3742,7 +3906,7 @@
         <v>62</v>
       </c>
       <c r="E161" s="23"/>
-      <c r="F161" s="43"/>
+      <c r="F161" s="42"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
@@ -3754,7 +3918,7 @@
         <v>64</v>
       </c>
       <c r="E162" s="23"/>
-      <c r="F162" s="43"/>
+      <c r="F162" s="42"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
@@ -3766,7 +3930,7 @@
         <v>66</v>
       </c>
       <c r="E163" s="23"/>
-      <c r="F163" s="43"/>
+      <c r="F163" s="42"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
@@ -3780,7 +3944,7 @@
       <c r="E164" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="43"/>
+      <c r="F164" s="42"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
@@ -3792,7 +3956,7 @@
         <v>70</v>
       </c>
       <c r="E165" s="32"/>
-      <c r="F165" s="43"/>
+      <c r="F165" s="42"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
@@ -3806,7 +3970,7 @@
       <c r="E166" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="43"/>
+      <c r="F166" s="42"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
@@ -3818,7 +3982,7 @@
         <v>74</v>
       </c>
       <c r="E167" s="23"/>
-      <c r="F167" s="43"/>
+      <c r="F167" s="42"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
@@ -3830,7 +3994,7 @@
         <v>76</v>
       </c>
       <c r="E168" s="23"/>
-      <c r="F168" s="43"/>
+      <c r="F168" s="42"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
@@ -3842,7 +4006,7 @@
         <v>78</v>
       </c>
       <c r="E169" s="29"/>
-      <c r="F169" s="44"/>
+      <c r="F169" s="43"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
@@ -3858,7 +4022,7 @@
         <v>55</v>
       </c>
       <c r="E170" s="18"/>
-      <c r="F170" s="42" t="s">
+      <c r="F170" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3872,7 +4036,7 @@
         <v>58</v>
       </c>
       <c r="E171" s="23"/>
-      <c r="F171" s="43"/>
+      <c r="F171" s="42"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
@@ -3884,7 +4048,7 @@
         <v>60</v>
       </c>
       <c r="E172" s="23"/>
-      <c r="F172" s="43"/>
+      <c r="F172" s="42"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
@@ -3896,7 +4060,7 @@
         <v>62</v>
       </c>
       <c r="E173" s="23"/>
-      <c r="F173" s="43"/>
+      <c r="F173" s="42"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
@@ -3908,7 +4072,7 @@
         <v>64</v>
       </c>
       <c r="E174" s="23"/>
-      <c r="F174" s="43"/>
+      <c r="F174" s="42"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
@@ -3920,7 +4084,7 @@
         <v>66</v>
       </c>
       <c r="E175" s="23"/>
-      <c r="F175" s="43"/>
+      <c r="F175" s="42"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
@@ -3934,7 +4098,7 @@
       <c r="E176" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="43"/>
+      <c r="F176" s="42"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
@@ -3948,7 +4112,7 @@
       <c r="E177" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F177" s="43"/>
+      <c r="F177" s="42"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
@@ -3962,7 +4126,7 @@
       <c r="E178" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F178" s="43"/>
+      <c r="F178" s="42"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
@@ -3974,7 +4138,7 @@
         <v>74</v>
       </c>
       <c r="E179" s="23"/>
-      <c r="F179" s="43"/>
+      <c r="F179" s="42"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="19"/>
@@ -3986,7 +4150,7 @@
         <v>76</v>
       </c>
       <c r="E180" s="23"/>
-      <c r="F180" s="43"/>
+      <c r="F180" s="42"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
@@ -3998,7 +4162,7 @@
         <v>78</v>
       </c>
       <c r="E181" s="29"/>
-      <c r="F181" s="44"/>
+      <c r="F181" s="43"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
@@ -4014,7 +4178,7 @@
         <v>55</v>
       </c>
       <c r="E182" s="18"/>
-      <c r="F182" s="42" t="s">
+      <c r="F182" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4028,7 +4192,7 @@
         <v>58</v>
       </c>
       <c r="E183" s="23"/>
-      <c r="F183" s="43"/>
+      <c r="F183" s="42"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="19"/>
@@ -4040,7 +4204,7 @@
         <v>60</v>
       </c>
       <c r="E184" s="23"/>
-      <c r="F184" s="43"/>
+      <c r="F184" s="42"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="19"/>
@@ -4052,7 +4216,7 @@
         <v>62</v>
       </c>
       <c r="E185" s="23"/>
-      <c r="F185" s="43"/>
+      <c r="F185" s="42"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
@@ -4064,7 +4228,7 @@
         <v>64</v>
       </c>
       <c r="E186" s="23"/>
-      <c r="F186" s="43"/>
+      <c r="F186" s="42"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="19"/>
@@ -4076,7 +4240,7 @@
         <v>66</v>
       </c>
       <c r="E187" s="23"/>
-      <c r="F187" s="43"/>
+      <c r="F187" s="42"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="19"/>
@@ -4090,7 +4254,7 @@
       <c r="E188" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F188" s="43"/>
+      <c r="F188" s="42"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="19"/>
@@ -4104,7 +4268,7 @@
       <c r="E189" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F189" s="43"/>
+      <c r="F189" s="42"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="19"/>
@@ -4118,7 +4282,7 @@
       <c r="E190" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F190" s="43"/>
+      <c r="F190" s="42"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="19"/>
@@ -4130,7 +4294,7 @@
         <v>74</v>
       </c>
       <c r="E191" s="23"/>
-      <c r="F191" s="43"/>
+      <c r="F191" s="42"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="19"/>
@@ -4142,7 +4306,7 @@
         <v>76</v>
       </c>
       <c r="E192" s="23"/>
-      <c r="F192" s="43"/>
+      <c r="F192" s="42"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
@@ -4154,7 +4318,7 @@
         <v>78</v>
       </c>
       <c r="E193" s="29"/>
-      <c r="F193" s="44"/>
+      <c r="F193" s="43"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
@@ -4170,7 +4334,7 @@
         <v>55</v>
       </c>
       <c r="E194" s="18"/>
-      <c r="F194" s="45" t="s">
+      <c r="F194" s="44" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4184,7 +4348,7 @@
         <v>58</v>
       </c>
       <c r="E195" s="23"/>
-      <c r="F195" s="43"/>
+      <c r="F195" s="42"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
@@ -4196,7 +4360,7 @@
         <v>60</v>
       </c>
       <c r="E196" s="23"/>
-      <c r="F196" s="43"/>
+      <c r="F196" s="42"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="19"/>
@@ -4208,7 +4372,7 @@
         <v>62</v>
       </c>
       <c r="E197" s="23"/>
-      <c r="F197" s="43"/>
+      <c r="F197" s="42"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
@@ -4220,7 +4384,7 @@
         <v>64</v>
       </c>
       <c r="E198" s="23"/>
-      <c r="F198" s="43"/>
+      <c r="F198" s="42"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="19"/>
@@ -4232,7 +4396,7 @@
         <v>66</v>
       </c>
       <c r="E199" s="23"/>
-      <c r="F199" s="43"/>
+      <c r="F199" s="42"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="19"/>
@@ -4246,7 +4410,7 @@
       <c r="E200" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F200" s="43"/>
+      <c r="F200" s="42"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="19"/>
@@ -4260,7 +4424,7 @@
       <c r="E201" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F201" s="43"/>
+      <c r="F201" s="42"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="19"/>
@@ -4274,7 +4438,7 @@
       <c r="E202" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F202" s="43"/>
+      <c r="F202" s="42"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="19"/>
@@ -4286,7 +4450,7 @@
         <v>74</v>
       </c>
       <c r="E203" s="23"/>
-      <c r="F203" s="43"/>
+      <c r="F203" s="42"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="19"/>
@@ -4298,7 +4462,7 @@
         <v>76</v>
       </c>
       <c r="E204" s="23"/>
-      <c r="F204" s="43"/>
+      <c r="F204" s="42"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
@@ -4310,7 +4474,7 @@
         <v>78</v>
       </c>
       <c r="E205" s="29"/>
-      <c r="F205" s="44"/>
+      <c r="F205" s="43"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
@@ -4326,7 +4490,7 @@
         <v>55</v>
       </c>
       <c r="E206" s="18"/>
-      <c r="F206" s="45" t="s">
+      <c r="F206" s="44" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4340,7 +4504,7 @@
         <v>58</v>
       </c>
       <c r="E207" s="23"/>
-      <c r="F207" s="43"/>
+      <c r="F207" s="42"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="19"/>
@@ -4352,7 +4516,7 @@
         <v>60</v>
       </c>
       <c r="E208" s="23"/>
-      <c r="F208" s="43"/>
+      <c r="F208" s="42"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="19"/>
@@ -4364,7 +4528,7 @@
         <v>62</v>
       </c>
       <c r="E209" s="23"/>
-      <c r="F209" s="43"/>
+      <c r="F209" s="42"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="19"/>
@@ -4376,7 +4540,7 @@
         <v>64</v>
       </c>
       <c r="E210" s="23"/>
-      <c r="F210" s="43"/>
+      <c r="F210" s="42"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="19"/>
@@ -4388,7 +4552,7 @@
         <v>66</v>
       </c>
       <c r="E211" s="23"/>
-      <c r="F211" s="43"/>
+      <c r="F211" s="42"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="19"/>
@@ -4402,7 +4566,7 @@
       <c r="E212" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F212" s="43"/>
+      <c r="F212" s="42"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="19"/>
@@ -4416,7 +4580,7 @@
       <c r="E213" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F213" s="43"/>
+      <c r="F213" s="42"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="19"/>
@@ -4430,7 +4594,7 @@
       <c r="E214" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F214" s="43"/>
+      <c r="F214" s="42"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="19"/>
@@ -4442,7 +4606,7 @@
         <v>74</v>
       </c>
       <c r="E215" s="23"/>
-      <c r="F215" s="43"/>
+      <c r="F215" s="42"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="19"/>
@@ -4454,7 +4618,7 @@
         <v>76</v>
       </c>
       <c r="E216" s="23"/>
-      <c r="F216" s="43"/>
+      <c r="F216" s="42"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
@@ -4466,7 +4630,7 @@
         <v>78</v>
       </c>
       <c r="E217" s="29"/>
-      <c r="F217" s="44"/>
+      <c r="F217" s="43"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
@@ -4482,7 +4646,7 @@
         <v>55</v>
       </c>
       <c r="E218" s="18"/>
-      <c r="F218" s="42" t="s">
+      <c r="F218" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4496,7 +4660,7 @@
         <v>58</v>
       </c>
       <c r="E219" s="23"/>
-      <c r="F219" s="43"/>
+      <c r="F219" s="42"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="19"/>
@@ -4508,7 +4672,7 @@
         <v>60</v>
       </c>
       <c r="E220" s="23"/>
-      <c r="F220" s="43"/>
+      <c r="F220" s="42"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
@@ -4520,7 +4684,7 @@
         <v>62</v>
       </c>
       <c r="E221" s="23"/>
-      <c r="F221" s="43"/>
+      <c r="F221" s="42"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="19"/>
@@ -4532,7 +4696,7 @@
         <v>64</v>
       </c>
       <c r="E222" s="23"/>
-      <c r="F222" s="43"/>
+      <c r="F222" s="42"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
@@ -4544,7 +4708,7 @@
         <v>66</v>
       </c>
       <c r="E223" s="23"/>
-      <c r="F223" s="43"/>
+      <c r="F223" s="42"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
@@ -4558,7 +4722,7 @@
       <c r="E224" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F224" s="43"/>
+      <c r="F224" s="42"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
@@ -4572,7 +4736,7 @@
       <c r="E225" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F225" s="43"/>
+      <c r="F225" s="42"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="19"/>
@@ -4586,7 +4750,7 @@
       <c r="E226" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F226" s="43"/>
+      <c r="F226" s="42"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
@@ -4598,7 +4762,7 @@
         <v>74</v>
       </c>
       <c r="E227" s="23"/>
-      <c r="F227" s="43"/>
+      <c r="F227" s="42"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
@@ -4610,7 +4774,7 @@
         <v>76</v>
       </c>
       <c r="E228" s="23"/>
-      <c r="F228" s="43"/>
+      <c r="F228" s="42"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
@@ -4622,7 +4786,7 @@
         <v>78</v>
       </c>
       <c r="E229" s="29"/>
-      <c r="F229" s="44"/>
+      <c r="F229" s="43"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
@@ -4638,7 +4802,7 @@
         <v>55</v>
       </c>
       <c r="E230" s="18"/>
-      <c r="F230" s="42" t="s">
+      <c r="F230" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4652,7 +4816,7 @@
         <v>58</v>
       </c>
       <c r="E231" s="23"/>
-      <c r="F231" s="43"/>
+      <c r="F231" s="42"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="19"/>
@@ -4664,7 +4828,7 @@
         <v>60</v>
       </c>
       <c r="E232" s="23"/>
-      <c r="F232" s="43"/>
+      <c r="F232" s="42"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="19"/>
@@ -4676,7 +4840,7 @@
         <v>62</v>
       </c>
       <c r="E233" s="23"/>
-      <c r="F233" s="43"/>
+      <c r="F233" s="42"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="19"/>
@@ -4688,7 +4852,7 @@
         <v>64</v>
       </c>
       <c r="E234" s="23"/>
-      <c r="F234" s="43"/>
+      <c r="F234" s="42"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="19"/>
@@ -4700,7 +4864,7 @@
         <v>66</v>
       </c>
       <c r="E235" s="23"/>
-      <c r="F235" s="43"/>
+      <c r="F235" s="42"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="19"/>
@@ -4714,7 +4878,7 @@
       <c r="E236" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F236" s="43"/>
+      <c r="F236" s="42"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="19"/>
@@ -4728,7 +4892,7 @@
       <c r="E237" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F237" s="43"/>
+      <c r="F237" s="42"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="19"/>
@@ -4742,7 +4906,7 @@
       <c r="E238" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F238" s="43"/>
+      <c r="F238" s="42"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="19"/>
@@ -4754,7 +4918,7 @@
         <v>74</v>
       </c>
       <c r="E239" s="23"/>
-      <c r="F239" s="43"/>
+      <c r="F239" s="42"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="19"/>
@@ -4766,7 +4930,7 @@
         <v>76</v>
       </c>
       <c r="E240" s="23"/>
-      <c r="F240" s="43"/>
+      <c r="F240" s="42"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
@@ -4778,7 +4942,7 @@
         <v>78</v>
       </c>
       <c r="E241" s="29"/>
-      <c r="F241" s="44"/>
+      <c r="F241" s="43"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -4794,7 +4958,7 @@
         <v>55</v>
       </c>
       <c r="E242" s="18"/>
-      <c r="F242" s="42" t="s">
+      <c r="F242" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4808,7 +4972,7 @@
         <v>58</v>
       </c>
       <c r="E243" s="23"/>
-      <c r="F243" s="43"/>
+      <c r="F243" s="42"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="19"/>
@@ -4820,7 +4984,7 @@
         <v>60</v>
       </c>
       <c r="E244" s="23"/>
-      <c r="F244" s="43"/>
+      <c r="F244" s="42"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="19"/>
@@ -4832,7 +4996,7 @@
         <v>62</v>
       </c>
       <c r="E245" s="23"/>
-      <c r="F245" s="43"/>
+      <c r="F245" s="42"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="19"/>
@@ -4844,7 +5008,7 @@
         <v>64</v>
       </c>
       <c r="E246" s="23"/>
-      <c r="F246" s="43"/>
+      <c r="F246" s="42"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="19"/>
@@ -4856,7 +5020,7 @@
         <v>66</v>
       </c>
       <c r="E247" s="23"/>
-      <c r="F247" s="43"/>
+      <c r="F247" s="42"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="19"/>
@@ -4870,7 +5034,7 @@
       <c r="E248" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F248" s="43"/>
+      <c r="F248" s="42"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="19"/>
@@ -4884,7 +5048,7 @@
       <c r="E249" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F249" s="43"/>
+      <c r="F249" s="42"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="19"/>
@@ -4898,7 +5062,7 @@
       <c r="E250" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F250" s="43"/>
+      <c r="F250" s="42"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
@@ -4910,7 +5074,7 @@
         <v>74</v>
       </c>
       <c r="E251" s="23"/>
-      <c r="F251" s="43"/>
+      <c r="F251" s="42"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="19"/>
@@ -4922,7 +5086,7 @@
         <v>76</v>
       </c>
       <c r="E252" s="23"/>
-      <c r="F252" s="43"/>
+      <c r="F252" s="42"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
@@ -4934,7 +5098,7 @@
         <v>78</v>
       </c>
       <c r="E253" s="29"/>
-      <c r="F253" s="44"/>
+      <c r="F253" s="43"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
@@ -4950,7 +5114,7 @@
         <v>55</v>
       </c>
       <c r="E254" s="18"/>
-      <c r="F254" s="45" t="s">
+      <c r="F254" s="44" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4964,7 +5128,7 @@
         <v>58</v>
       </c>
       <c r="E255" s="23"/>
-      <c r="F255" s="43"/>
+      <c r="F255" s="42"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="19"/>
@@ -4976,7 +5140,7 @@
         <v>60</v>
       </c>
       <c r="E256" s="23"/>
-      <c r="F256" s="43"/>
+      <c r="F256" s="42"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="19"/>
@@ -4988,7 +5152,7 @@
         <v>62</v>
       </c>
       <c r="E257" s="23"/>
-      <c r="F257" s="43"/>
+      <c r="F257" s="42"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="19"/>
@@ -5000,7 +5164,7 @@
         <v>64</v>
       </c>
       <c r="E258" s="23"/>
-      <c r="F258" s="43"/>
+      <c r="F258" s="42"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
@@ -5012,7 +5176,7 @@
         <v>66</v>
       </c>
       <c r="E259" s="23"/>
-      <c r="F259" s="43"/>
+      <c r="F259" s="42"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="19"/>
@@ -5026,7 +5190,7 @@
       <c r="E260" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F260" s="43"/>
+      <c r="F260" s="42"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="19"/>
@@ -5040,7 +5204,7 @@
       <c r="E261" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F261" s="43"/>
+      <c r="F261" s="42"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="19"/>
@@ -5052,7 +5216,7 @@
         <v>72</v>
       </c>
       <c r="E262" s="35"/>
-      <c r="F262" s="43"/>
+      <c r="F262" s="42"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="19"/>
@@ -5064,7 +5228,7 @@
         <v>74</v>
       </c>
       <c r="E263" s="23"/>
-      <c r="F263" s="43"/>
+      <c r="F263" s="42"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="19"/>
@@ -5076,7 +5240,7 @@
         <v>76</v>
       </c>
       <c r="E264" s="23"/>
-      <c r="F264" s="43"/>
+      <c r="F264" s="42"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
@@ -5088,25 +5252,10 @@
         <v>78</v>
       </c>
       <c r="E265" s="29"/>
-      <c r="F265" s="44"/>
+      <c r="F265" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="F14:F25"/>
-    <mergeCell ref="F26:F37"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="F50:F61"/>
-    <mergeCell ref="F62:F73"/>
-    <mergeCell ref="F74:F85"/>
-    <mergeCell ref="F86:F97"/>
-    <mergeCell ref="F98:F109"/>
-    <mergeCell ref="F110:F121"/>
-    <mergeCell ref="F122:F133"/>
-    <mergeCell ref="F134:F145"/>
-    <mergeCell ref="F146:F157"/>
-    <mergeCell ref="F158:F169"/>
-    <mergeCell ref="F170:F181"/>
     <mergeCell ref="F242:F253"/>
     <mergeCell ref="F254:F265"/>
     <mergeCell ref="F182:F193"/>
@@ -5114,6 +5263,21 @@
     <mergeCell ref="F206:F217"/>
     <mergeCell ref="F218:F229"/>
     <mergeCell ref="F230:F241"/>
+    <mergeCell ref="F122:F133"/>
+    <mergeCell ref="F134:F145"/>
+    <mergeCell ref="F146:F157"/>
+    <mergeCell ref="F158:F169"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="F62:F73"/>
+    <mergeCell ref="F74:F85"/>
+    <mergeCell ref="F86:F97"/>
+    <mergeCell ref="F98:F109"/>
+    <mergeCell ref="F110:F121"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="F14:F25"/>
+    <mergeCell ref="F26:F37"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="F50:F61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
